--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_130.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_130.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,16 +477,16 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>46.28596597436862</v>
+        <v>41.02974113839863</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004628596597436863</v>
+        <v>0.0004102974113839863</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995371403402563</v>
+        <v>0.999589702588616</v>
       </c>
       <c r="F2" t="n">
-        <v>65.88495753533554</v>
+        <v>71.66319036298292</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99953.71403402563</v>
+        <v>99958.97025886161</v>
       </c>
       <c r="C3" t="n">
-        <v>48.98423668463084</v>
+        <v>43.18377188662431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004900692001095219</v>
+        <v>0.0004320149734915457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995099307998905</v>
+        <v>0.9995679850265085</v>
       </c>
       <c r="F3" t="n">
-        <v>64.9152356090316</v>
+        <v>70.69240042058567</v>
       </c>
     </row>
     <row r="4">
@@ -514,19 +514,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99904.729797341</v>
+        <v>99915.78648697498</v>
       </c>
       <c r="C4" t="n">
-        <v>51.88238739780459</v>
+        <v>45.48688584943878</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005193186298891872</v>
+        <v>0.0004552522424008387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994806813701108</v>
+        <v>0.9995447477575992</v>
       </c>
       <c r="F4" t="n">
-        <v>63.94681901007346</v>
+        <v>69.72273769474938</v>
       </c>
     </row>
     <row r="5">
@@ -534,19 +534,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99852.84740994319</v>
+        <v>99870.29960112553</v>
       </c>
       <c r="C5" t="n">
-        <v>54.99503534525562</v>
+        <v>47.94928101381507</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000550760812252804</v>
+        <v>0.0004801155218850939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994492391877472</v>
+        <v>0.9995198844781149</v>
       </c>
       <c r="F5" t="n">
-        <v>62.97978524517265</v>
+        <v>68.75426585457552</v>
       </c>
     </row>
     <row r="6">
@@ -554,19 +554,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99797.85237459793</v>
+        <v>99822.35032011171</v>
       </c>
       <c r="C6" t="n">
-        <v>58.3378380841192</v>
+        <v>50.58183621406519</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005845600551116492</v>
+        <v>0.0005067185460155832</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994154399448884</v>
+        <v>0.9994932814539844</v>
       </c>
       <c r="F6" t="n">
-        <v>62.01421562534781</v>
+        <v>67.78705152795786</v>
       </c>
     </row>
     <row r="7">
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99739.51453651382</v>
+        <v>99771.76848389764</v>
       </c>
       <c r="C7" t="n">
-        <v>61.92756304422883</v>
+        <v>53.39615414241699</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006208929663634732</v>
+        <v>0.0005351829976937283</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993791070336365</v>
+        <v>0.9994648170023063</v>
       </c>
       <c r="F7" t="n">
-        <v>61.05019541096938</v>
+        <v>66.82116441050402</v>
       </c>
     </row>
     <row r="8">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99677.58697346959</v>
+        <v>99718.37232975522</v>
       </c>
       <c r="C8" t="n">
-        <v>65.78216100506052</v>
+        <v>56.40460671354154</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0006599493727970085</v>
+        <v>0.0005656390632512442</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999340050627203</v>
+        <v>0.9994343609367488</v>
       </c>
       <c r="F8" t="n">
-        <v>60.08781395850355</v>
+        <v>65.85667737601911</v>
       </c>
     </row>
     <row r="9">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99611.80481246453</v>
+        <v>99661.96772304169</v>
       </c>
       <c r="C9" t="n">
-        <v>69.92084360380376</v>
+        <v>59.62038285531604</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007019333073569056</v>
+        <v>0.0005982260256088834</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992980666926431</v>
+        <v>0.9994017739743911</v>
       </c>
       <c r="F9" t="n">
-        <v>59.12716486856021</v>
+        <v>64.89366658833069</v>
       </c>
     </row>
     <row r="10">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99541.88396886073</v>
+        <v>99602.34734018637</v>
       </c>
       <c r="C10" t="n">
-        <v>74.36416495394062</v>
+        <v>63.05753879039505</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007470640698060693</v>
+        <v>0.0006330928986545414</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992529359301939</v>
+        <v>0.9993669071013455</v>
       </c>
       <c r="F10" t="n">
-        <v>58.16834613479978</v>
+        <v>63.93221161420586</v>
       </c>
     </row>
     <row r="11">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99467.51980390679</v>
+        <v>99539.28980139598</v>
       </c>
       <c r="C11" t="n">
-        <v>79.13410742738209</v>
+        <v>66.73105086317743</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007955773661934007</v>
+        <v>0.0006703991056830061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992044226338066</v>
+        <v>0.999329600894317</v>
       </c>
       <c r="F11" t="n">
-        <v>57.21146029320087</v>
+        <v>62.97239553708098</v>
       </c>
     </row>
     <row r="12">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99388.38569647941</v>
+        <v>99472.5587505328</v>
       </c>
       <c r="C12" t="n">
-        <v>84.2541716187915</v>
+        <v>70.65687095394316</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0008477265329179806</v>
+        <v>0.0007103152049314776</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999152273467082</v>
+        <v>0.9992896847950685</v>
       </c>
       <c r="F12" t="n">
-        <v>56.25661457113542</v>
+        <v>62.01430507129317</v>
       </c>
     </row>
     <row r="13">
@@ -694,19 +694,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99304.13152486063</v>
+        <v>99401.90187957886</v>
       </c>
       <c r="C13" t="n">
-        <v>89.74947046970127</v>
+        <v>74.85198450612164</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009037838516037233</v>
+        <v>0.0007530236654506028</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990962161483963</v>
+        <v>0.9992469763345494</v>
       </c>
       <c r="F13" t="n">
-        <v>55.30392103563819</v>
+        <v>61.0580306764683</v>
       </c>
     </row>
     <row r="14">
@@ -714,19 +714,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99214.38205439092</v>
+        <v>99327.04989507273</v>
       </c>
       <c r="C14" t="n">
-        <v>95.64682747863584</v>
+        <v>79.33447117322143</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000964041961438622</v>
+        <v>0.0007987196967697008</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9990359580385614</v>
+        <v>0.9992012803032303</v>
       </c>
       <c r="F14" t="n">
-        <v>54.35349674019598</v>
+        <v>60.10366667168516</v>
       </c>
     </row>
     <row r="15">
@@ -734,19 +734,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99118.73522691229</v>
+        <v>99247.71542389951</v>
       </c>
       <c r="C15" t="n">
-        <v>101.9748788619895</v>
+        <v>84.12356806795022</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00102881537610966</v>
+        <v>0.000847612136044118</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989711846238903</v>
+        <v>0.9991523878639559</v>
       </c>
       <c r="F15" t="n">
-        <v>53.4054638693168</v>
+        <v>59.15131134899774</v>
       </c>
     </row>
     <row r="16">
@@ -754,19 +754,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99016.7603480503</v>
+        <v>99163.59185583156</v>
       </c>
       <c r="C16" t="n">
-        <v>108.7641794565027</v>
+        <v>89.23973556833595</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001098442112973497</v>
+        <v>0.0008999243966281156</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9989015578870265</v>
+        <v>0.9991000756033719</v>
       </c>
       <c r="F16" t="n">
-        <v>52.45994988007141</v>
+        <v>58.20106708585845</v>
       </c>
     </row>
     <row r="17">
@@ -774,19 +774,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98907.9961685938</v>
+        <v>99074.35212026323</v>
       </c>
       <c r="C17" t="n">
-        <v>116.0473120652111</v>
+        <v>94.70472560042595</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00117328544263906</v>
+        <v>0.0009558954822683763</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9988267145573609</v>
+        <v>0.9990441045177316</v>
       </c>
       <c r="F17" t="n">
-        <v>51.51708763972911</v>
+        <v>57.25304045594421</v>
       </c>
     </row>
     <row r="18">
@@ -794,19 +794,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98791.94885652859</v>
+        <v>98979.6473946628</v>
       </c>
       <c r="C18" t="n">
-        <v>123.8589998443516</v>
+        <v>100.5416522778493</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001253735767721587</v>
+        <v>0.001015781071405097</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9987462642322784</v>
+        <v>0.9989842189285949</v>
       </c>
       <c r="F18" t="n">
-        <v>50.5770155585374</v>
+        <v>56.30734233784462</v>
       </c>
     </row>
     <row r="19">
@@ -814,19 +814,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98668.08985668424</v>
+        <v>98879.10574238494</v>
       </c>
       <c r="C19" t="n">
-        <v>132.2362212037681</v>
+        <v>106.7750647299199</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00134021264013362</v>
+        <v>0.001079854676357073</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9986597873598664</v>
+        <v>0.9989201453236429</v>
       </c>
       <c r="F19" t="n">
-        <v>49.63987771661991</v>
+        <v>55.36408802102768</v>
       </c>
     </row>
     <row r="20">
@@ -834,19 +834,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98535.85363548047</v>
+        <v>98772.33067765502</v>
       </c>
       <c r="C20" t="n">
-        <v>141.2183265481449</v>
+        <v>113.4310218939008</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001433166926939733</v>
+        <v>0.001148408882484353</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9985668330730603</v>
+        <v>0.9988515911175156</v>
       </c>
       <c r="F20" t="n">
-        <v>48.70582398389132</v>
+        <v>54.42339730845264</v>
       </c>
     </row>
     <row r="21">
@@ -854,19 +854,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98394.63530893232</v>
+        <v>98658.89965576111</v>
       </c>
       <c r="C21" t="n">
-        <v>150.8471560146982</v>
+        <v>120.5371689818844</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001533083135488833</v>
+        <v>0.00122175667276303</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9984669168645112</v>
+        <v>0.998778243327237</v>
       </c>
       <c r="F21" t="n">
-        <v>47.77501013180991</v>
+        <v>53.4853946151531</v>
       </c>
     </row>
     <row r="22">
@@ -874,19 +874,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98243.78815291762</v>
+        <v>98538.36248677922</v>
       </c>
       <c r="C22" t="n">
-        <v>161.1671571644356</v>
+        <v>128.1228152552156</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001640481909284452</v>
+        <v>0.00130023284355274</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9983595180907155</v>
+        <v>0.9986997671564473</v>
       </c>
       <c r="F22" t="n">
-        <v>46.84759793571106</v>
+        <v>52.55020906206617</v>
       </c>
     </row>
     <row r="23">
@@ -894,19 +894,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>98082.62099575318</v>
+        <v>98410.239671524</v>
       </c>
       <c r="C23" t="n">
-        <v>172.2255013516919</v>
+        <v>136.2190126516928</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00175592270682845</v>
+        <v>0.001384195517726283</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9982440772931716</v>
+        <v>0.9986158044822737</v>
       </c>
       <c r="F23" t="n">
-        <v>45.92375526638661</v>
+        <v>51.61797456433415</v>
       </c>
     </row>
     <row r="24">
@@ -914,19 +914,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97910.39549440148</v>
+        <v>98274.02065887231</v>
       </c>
       <c r="C24" t="n">
-        <v>184.0721972291555</v>
+        <v>144.8586347068926</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001880006676509449</v>
+        <v>0.001474027761718677</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9981199933234906</v>
+        <v>0.9985259722382813</v>
       </c>
       <c r="F24" t="n">
-        <v>45.00365616949835</v>
+        <v>50.68882991325774</v>
       </c>
     </row>
     <row r="25">
@@ -934,19 +934,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97726.32329717233</v>
+        <v>98129.16202416542</v>
       </c>
       <c r="C25" t="n">
-        <v>196.7601995363588</v>
+        <v>154.0764550935945</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002013379741485188</v>
+        <v>0.001570139313486152</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9979866202585148</v>
+        <v>0.9984298606865138</v>
       </c>
       <c r="F25" t="n">
-        <v>44.08748093133801</v>
+        <v>49.76291885102917</v>
       </c>
     </row>
     <row r="26">
@@ -954,19 +954,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97529.56309763597</v>
+        <v>97975.08556907182</v>
       </c>
       <c r="C26" t="n">
-        <v>210.3455109642099</v>
+        <v>163.9092249666821</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002156735909435326</v>
+        <v>0.001672968428806598</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9978432640905647</v>
+        <v>0.9983270315711934</v>
       </c>
       <c r="F26" t="n">
-        <v>43.17541612937381</v>
+        <v>48.84039013732653</v>
       </c>
     </row>
     <row r="27">
@@ -974,19 +974,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97319.21758667176</v>
+        <v>97811.17634410513</v>
       </c>
       <c r="C27" t="n">
-        <v>224.8872744818051</v>
+        <v>174.3957481454433</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002310820823045789</v>
+        <v>0.001782983853827802</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9976891791769542</v>
+        <v>0.9982170161461722</v>
       </c>
       <c r="F27" t="n">
-        <v>42.2676546659542</v>
+        <v>47.9213976068014</v>
       </c>
     </row>
     <row r="28">
@@ -994,19 +994,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>97094.33031218995</v>
+        <v>97636.78059595969</v>
       </c>
       <c r="C28" t="n">
-        <v>240.4478530476344</v>
+        <v>185.5769529876072</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002476435568117274</v>
+        <v>0.001900686932269524</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9975235644318827</v>
+        <v>0.9980993130677305</v>
       </c>
       <c r="F28" t="n">
-        <v>41.36439578347488</v>
+        <v>47.00610021644565</v>
       </c>
     </row>
     <row r="29">
@@ -1014,19 +1014,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96853.88245914232</v>
+        <v>97451.20364297208</v>
       </c>
       <c r="C29" t="n">
-        <v>257.0928931002621</v>
+        <v>197.4959596073467</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002654440757279053</v>
+        <v>0.002026613856211612</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9973455592427209</v>
+        <v>0.9979733861437884</v>
       </c>
       <c r="F29" t="n">
-        <v>40.46584505925761</v>
+        <v>46.09466208177801</v>
       </c>
     </row>
     <row r="30">
@@ -1034,19 +1034,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96596.78956604206</v>
+        <v>97253.70768336473</v>
       </c>
       <c r="C30" t="n">
-        <v>274.8913676269592</v>
+        <v>210.1981408599101</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002845760908430806</v>
+        <v>0.002161338069950669</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9971542390915692</v>
+        <v>0.9978386619300493</v>
       </c>
       <c r="F30" t="n">
-        <v>39.57221437833789</v>
+        <v>45.18725250074827</v>
       </c>
     </row>
     <row r="31">
@@ -1054,19 +1054,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96321.8981984151</v>
+        <v>97043.50954250482</v>
       </c>
       <c r="C31" t="n">
-        <v>293.9155939364999</v>
+        <v>223.7311752572228</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003051389138231664</v>
+        <v>0.002305472836998224</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9969486108617683</v>
+        <v>0.9976945271630018</v>
       </c>
       <c r="F31" t="n">
-        <v>38.68372188231741</v>
+        <v>44.28404596421716</v>
       </c>
     </row>
     <row r="32">
@@ -1074,19 +1074,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96027.9826044786</v>
+        <v>96819.77836724759</v>
       </c>
       <c r="C32" t="n">
-        <v>314.2412205078043</v>
+        <v>238.1450896860658</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003272392192201989</v>
+        <v>0.002459673980896304</v>
       </c>
       <c r="E32" t="n">
-        <v>0.996727607807798</v>
+        <v>0.9975403260191037</v>
       </c>
       <c r="F32" t="n">
-        <v>37.80059189240575</v>
+        <v>43.38522215183383</v>
       </c>
     </row>
     <row r="33">
@@ -1094,19 +1094,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95713.7413839708</v>
+        <v>96581.63327756153</v>
       </c>
       <c r="C33" t="n">
-        <v>335.947176444464</v>
+        <v>253.4922894734195</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003509915834308042</v>
+        <v>0.002624642811174249</v>
       </c>
       <c r="E33" t="n">
-        <v>0.996490084165692</v>
+        <v>0.9973753571888258</v>
       </c>
       <c r="F33" t="n">
-        <v>36.92305480475717</v>
+        <v>42.49096591210142</v>
       </c>
     </row>
     <row r="34">
@@ -1114,19 +1114,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95377.79420752634</v>
+        <v>96328.14098808811</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1155761295339</v>
+        <v>269.8275729766773</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003765190620241832</v>
+        <v>0.002801129246437384</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9962348093797582</v>
+        <v>0.9971988707535626</v>
       </c>
       <c r="F34" t="n">
-        <v>36.05134695620404</v>
+        <v>41.60146722539445</v>
       </c>
     </row>
     <row r="35">
@@ -1134,19 +1134,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>95018.6786313968</v>
+        <v>96058.31341511144</v>
       </c>
       <c r="C35" t="n">
-        <v>383.831570643729</v>
+        <v>287.2081274684362</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004039538080009675</v>
+        <v>0.00298993514728163</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9959604619199903</v>
+        <v>0.9970100648527184</v>
       </c>
       <c r="F35" t="n">
-        <v>35.18571045849905</v>
+        <v>40.7169211486721</v>
       </c>
     </row>
     <row r="36">
@@ -1154,19 +1154,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94634.84706075308</v>
+        <v>95771.105287643</v>
       </c>
       <c r="C36" t="n">
-        <v>410.183136378647</v>
+        <v>305.6935026325128</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004334377336873807</v>
+        <v>0.003191917872456207</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9956656226631262</v>
+        <v>0.9968080821275438</v>
       </c>
       <c r="F36" t="n">
-        <v>34.32639299920874</v>
+        <v>39.83752774061823</v>
       </c>
     </row>
     <row r="37">
@@ -1174,19 +1174,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>94224.66392437443</v>
+        <v>95465.4117850105</v>
       </c>
       <c r="C37" t="n">
-        <v>438.2607900462339</v>
+        <v>325.3455574876707</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004651232191159482</v>
+        <v>0.003407994072453735</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9953487678088405</v>
+        <v>0.9965920059275463</v>
       </c>
       <c r="F37" t="n">
-        <v>33.47364760744941</v>
+        <v>38.96349196593381</v>
       </c>
     </row>
     <row r="38">
@@ -1194,19 +1194,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>93786.4031343282</v>
+        <v>95140.06622752282</v>
       </c>
       <c r="C38" t="n">
-        <v>468.1572179593772</v>
+        <v>346.2283760065334</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004991738698933212</v>
+        <v>0.003639143735495676</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9950082613010668</v>
+        <v>0.9963608562645043</v>
       </c>
       <c r="F38" t="n">
-        <v>32.62773238272807</v>
+        <v>38.09502357751219</v>
       </c>
     </row>
     <row r="39">
@@ -1214,19 +1214,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>93318.24591636882</v>
+        <v>94793.83785151629</v>
       </c>
       <c r="C39" t="n">
-        <v>499.9668060438583</v>
+        <v>368.4081460968807</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005357653277065721</v>
+        <v>0.003886414501688917</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9946423467229343</v>
+        <v>0.9961135854983111</v>
       </c>
       <c r="F39" t="n">
-        <v>31.78891018524613</v>
+        <v>37.23233697524125</v>
       </c>
     </row>
     <row r="40">
@@ -1234,19 +1234,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92818.27911032496</v>
+        <v>94425.42970541942</v>
       </c>
       <c r="C40" t="n">
-        <v>533.7850555516319</v>
+        <v>391.952995961472</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005750861367696425</v>
+        <v>0.004150926261964116</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9942491386323036</v>
+        <v>0.9958490737380359</v>
       </c>
       <c r="F40" t="n">
-        <v>30.95744828614452</v>
+        <v>36.37565104020311</v>
       </c>
     </row>
     <row r="41">
@@ -1254,19 +1254,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>92284.49405477333</v>
+        <v>94033.47670945794</v>
       </c>
       <c r="C41" t="n">
-        <v>569.7078679013216</v>
+        <v>416.9327811511048</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00617338669661216</v>
+        <v>0.0044338760592606</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9938266133033878</v>
+        <v>0.9955661239407394</v>
       </c>
       <c r="F41" t="n">
-        <v>30.1336179763173</v>
+        <v>35.52518894307917</v>
       </c>
     </row>
     <row r="42">
@@ -1274,19 +1274,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91714.78618687201</v>
+        <v>93616.54392830684</v>
       </c>
       <c r="C42" t="n">
-        <v>607.8306805015958</v>
+        <v>443.4188148763046</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006627401161499957</v>
+        <v>0.004736543310292274</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9933725988385</v>
+        <v>0.9952634566897077</v>
       </c>
       <c r="F42" t="n">
-        <v>29.31769413259914</v>
+        <v>34.68117792562016</v>
       </c>
     </row>
     <row r="43">
@@ -1294,19 +1294,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>91106.95550637042</v>
+        <v>93173.12511343053</v>
       </c>
       <c r="C43" t="n">
-        <v>648.2474338598136</v>
+        <v>471.4835333505548</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007115235387428642</v>
+        <v>0.005060295367108947</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9928847646125714</v>
+        <v>0.9949397046328911</v>
       </c>
       <c r="F43" t="n">
-        <v>28.50995474034032</v>
+        <v>33.84384905410708</v>
       </c>
     </row>
     <row r="44">
@@ -1314,19 +1314,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>90458.70807251061</v>
+        <v>92701.64158007997</v>
       </c>
       <c r="C44" t="n">
-        <v>691.049348795891</v>
+        <v>501.2000871101878</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007639389988213785</v>
+        <v>0.00540659343855554</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9923606100117862</v>
+        <v>0.9945934065614445</v>
       </c>
       <c r="F44" t="n">
-        <v>27.71068037162394</v>
+        <v>33.01343694380974</v>
       </c>
     </row>
     <row r="45">
@@ -1334,19 +1334,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89767.65872371472</v>
+        <v>92200.44149296978</v>
       </c>
       <c r="C45" t="n">
-        <v>736.3234912419982</v>
+        <v>532.6418484030771</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008202547573489039</v>
+        <v>0.005776998892610408</v>
       </c>
       <c r="E45" t="n">
-        <v>0.991797452426511</v>
+        <v>0.9942230011073896</v>
       </c>
       <c r="F45" t="n">
-        <v>26.92015361865357</v>
+        <v>32.1901794535485</v>
       </c>
     </row>
     <row r="46">
@@ -1354,19 +1354,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89031.33523247272</v>
+        <v>91667.79964456671</v>
       </c>
       <c r="C46" t="n">
-        <v>784.1511010063172</v>
+        <v>565.8818238768519</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008807585542312646</v>
+        <v>0.006173179961458719</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9911924144576874</v>
+        <v>0.9938268200385413</v>
       </c>
       <c r="F46" t="n">
-        <v>26.13865848214731</v>
+        <v>31.37431734957974</v>
       </c>
     </row>
     <row r="47">
@@ -1374,19 +1374,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>88247.18413146641</v>
+        <v>91101.91782068985</v>
       </c>
       <c r="C47" t="n">
-        <v>834.6056601295493</v>
+        <v>600.9919609467911</v>
       </c>
       <c r="D47" t="n">
-        <v>0.009457589704915614</v>
+        <v>0.006596918872000979</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9905424102950844</v>
+        <v>0.993403081127999</v>
       </c>
       <c r="F47" t="n">
-        <v>25.36647971491491</v>
+        <v>30.56609393815958</v>
       </c>
     </row>
     <row r="48">
@@ -1394,19 +1394,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>87412.57847133686</v>
+        <v>90500.92585974306</v>
       </c>
       <c r="C48" t="n">
-        <v>887.7506762133822</v>
+        <v>638.0423354123928</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01015586877470365</v>
+        <v>0.007050119425310863</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9898441312252964</v>
+        <v>0.9929498805746891</v>
       </c>
       <c r="F48" t="n">
-        <v>24.6039021211693</v>
+        <v>29.765754666293</v>
       </c>
     </row>
     <row r="49">
@@ -1414,19 +1414,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>86524.82779512348</v>
+        <v>89862.88352433067</v>
       </c>
       <c r="C49" t="n">
-        <v>943.6371565280082</v>
+        <v>677.1002071538452</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01090596977277303</v>
+        <v>0.007534815049313637</v>
       </c>
       <c r="E49" t="n">
-        <v>0.989094030227227</v>
+        <v>0.9924651849506864</v>
       </c>
       <c r="F49" t="n">
-        <v>23.85120981253064</v>
+        <v>28.97354669034742</v>
       </c>
     </row>
     <row r="50">
@@ -1434,19 +1434,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>85581.19063859546</v>
+        <v>89185.78331717683</v>
       </c>
       <c r="C50" t="n">
-        <v>1002.300750028557</v>
+        <v>718.2289301203692</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01171169438692687</v>
+        <v>0.008053177349646501</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9882883056130731</v>
+        <v>0.9919468226503535</v>
       </c>
       <c r="F50" t="n">
-        <v>23.10868542211917</v>
+        <v>28.18971841240176</v>
       </c>
     </row>
     <row r="51">
@@ -1454,19 +1454,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>84578.8898885669</v>
+        <v>88467.55438705646</v>
       </c>
       <c r="C51" t="n">
-        <v>1063.758536883758</v>
+        <v>761.4867023762833</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01257711632637015</v>
+        <v>0.00860752518425778</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9874228836736298</v>
+        <v>0.9913924748157422</v>
       </c>
       <c r="F51" t="n">
-        <v>22.37660927859927</v>
+        <v>27.41451898441331</v>
       </c>
     </row>
     <row r="52">
@@ -1474,19 +1474,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83515.13135168314</v>
+        <v>87706.06768468018</v>
       </c>
       <c r="C52" t="n">
-        <v>1128.005449047429</v>
+        <v>806.9251417656774</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01350659971182211</v>
+        <v>0.009200334287779555</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9864934002881779</v>
+        <v>0.9907996657122204</v>
       </c>
       <c r="F52" t="n">
-        <v>21.65525854252947</v>
+        <v>26.64819778051632</v>
       </c>
     </row>
     <row r="53">
@@ -1494,19 +1494,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>82387.12590263571</v>
+        <v>86899.1425429145</v>
       </c>
       <c r="C53" t="n">
-        <v>1195.010311133158</v>
+        <v>854.5876728754076</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01450481853858343</v>
+        <v>0.009834247472043534</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9854951814614166</v>
+        <v>0.9901657525279565</v>
       </c>
       <c r="F53" t="n">
-        <v>20.94490630788763</v>
+        <v>25.89100383801614</v>
       </c>
     </row>
     <row r="54">
@@ -1514,19 +1514,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>81192.11559150256</v>
+        <v>86044.55487003909</v>
       </c>
       <c r="C54" t="n">
-        <v>1264.711498778952</v>
+        <v>904.5077115157237</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01557677724696849</v>
+        <v>0.01051208542925097</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9844232227530315</v>
+        <v>0.989487914570749</v>
       </c>
       <c r="F54" t="n">
-        <v>20.24582067217147</v>
+        <v>25.14318526791225</v>
       </c>
     </row>
     <row r="55">
@@ -1534,19 +1534,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>79927.40409272361</v>
+        <v>85140.04715852338</v>
       </c>
       <c r="C55" t="n">
-        <v>1337.012222253824</v>
+        <v>956.706634017176</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01672783243032339</v>
+        <v>0.01123685816424169</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9832721675696766</v>
+        <v>0.9887631418357583</v>
       </c>
       <c r="F55" t="n">
-        <v>19.55826377901818</v>
+        <v>24.40498863606915</v>
       </c>
     </row>
     <row r="56">
@@ -1554,19 +1554,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>78590.39187046979</v>
+        <v>84183.3405245062</v>
       </c>
       <c r="C56" t="n">
-        <v>1411.775456734167</v>
+        <v>1011.191520394986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0179637157053627</v>
+        <v>0.01201177708195866</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9820362842946373</v>
+        <v>0.9879882229180413</v>
       </c>
       <c r="F56" t="n">
-        <v>18.88249083783577</v>
+        <v>23.67665831645649</v>
       </c>
     </row>
     <row r="57">
@@ -1574,19 +1574,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>77178.61641373562</v>
+        <v>83172.14900411121</v>
       </c>
       <c r="C57" t="n">
-        <v>1488.818557964678</v>
+        <v>1067.952663016599</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0192905577625736</v>
+        <v>0.0128402677555417</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9807094422374264</v>
+        <v>0.9871597322444583</v>
       </c>
       <c r="F57" t="n">
-        <v>18.21874912548601</v>
+        <v>22.9584358181961</v>
       </c>
     </row>
     <row r="58">
@@ -1594,19 +1594,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>75689.79785577094</v>
+        <v>82104.19634109462</v>
       </c>
       <c r="C58" t="n">
-        <v>1567.90762341504</v>
+        <v>1126.960836001979</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02071491360569799</v>
+        <v>0.01372598339943698</v>
       </c>
       <c r="E58" t="n">
-        <v>0.979285086394302</v>
+        <v>0.986274016600563</v>
       </c>
       <c r="F58" t="n">
-        <v>17.56727697559617</v>
+        <v>22.25055908848046</v>
       </c>
     </row>
     <row r="59">
@@ -1614,19 +1614,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>74121.8902323559</v>
+        <v>80977.23550509264</v>
       </c>
       <c r="C59" t="n">
-        <v>1648.751685016245</v>
+        <v>1188.164325387348</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02224378897850243</v>
+        <v>0.01467281907039941</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9777562110214976</v>
+        <v>0.9853271809296006</v>
       </c>
       <c r="F59" t="n">
-        <v>16.92830276159659</v>
+        <v>21.55326179376512</v>
       </c>
     </row>
     <row r="60">
@@ -1634,19 +1634,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72473.13854733965</v>
+        <v>79789.07117970529</v>
       </c>
       <c r="C60" t="n">
-        <v>1730.996850502635</v>
+        <v>1251.485726310962</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02388466796386834</v>
+        <v>0.01568492661723431</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9761153320361317</v>
+        <v>0.9843150733827657</v>
       </c>
       <c r="F60" t="n">
-        <v>16.30204388007245</v>
+        <v>20.86677258197887</v>
       </c>
     </row>
     <row r="61">
@@ -1654,19 +1654,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>70742.14169683702</v>
+        <v>78537.58545339433</v>
       </c>
       <c r="C61" t="n">
-        <v>1814.220546552639</v>
+        <v>1316.81852136393</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02564554172430089</v>
+        <v>0.01676673039745225</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9743544582756991</v>
+        <v>0.9832332696025478</v>
       </c>
       <c r="F61" t="n">
-        <v>15.68870574147229</v>
+        <v>20.19131432884086</v>
       </c>
     </row>
     <row r="62">
@@ -1674,19 +1674,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68927.92115028438</v>
+        <v>77220.7669320304</v>
       </c>
       <c r="C62" t="n">
-        <v>1897.926058352906</v>
+        <v>1384.023464032941</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02753493833384058</v>
+        <v>0.01792294377561876</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9724650616661594</v>
+        <v>0.9820770562243812</v>
       </c>
       <c r="F62" t="n">
-        <v>15.08848077562196</v>
+        <v>19.52710337171634</v>
       </c>
     </row>
     <row r="63">
@@ -1694,19 +1694,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67029.99509193147</v>
+        <v>75836.74346799745</v>
       </c>
       <c r="C63" t="n">
-        <v>1981.537606632735</v>
+        <v>1452.924803082551</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02956195362859659</v>
+        <v>0.01915858641392842</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9704380463714034</v>
+        <v>0.9808414135860716</v>
       </c>
       <c r="F63" t="n">
-        <v>14.50154745984086</v>
+        <v>18.87434873477902</v>
       </c>
     </row>
     <row r="64">
@@ -1714,19 +1714,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>65048.45748529874</v>
+        <v>74383.8186649149</v>
       </c>
       <c r="C64" t="n">
-        <v>2064.396253917507</v>
+        <v>1523.306398007207</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03173628297618081</v>
+        <v>0.02047900236030387</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9682637170238192</v>
+        <v>0.9795209976396961</v>
       </c>
       <c r="F64" t="n">
-        <v>13.92806937773566</v>
+        <v>18.23325134957367</v>
       </c>
     </row>
     <row r="65">
@@ -1734,19 +1734,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62984.06123138123</v>
+        <v>72860.5122669077</v>
       </c>
       <c r="C65" t="n">
-        <v>2145.756985439502</v>
+        <v>1594.907792515265</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03406825383261247</v>
+        <v>0.02188987893294914</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9659317461673875</v>
+        <v>0.9781101210670509</v>
       </c>
       <c r="F65" t="n">
-        <v>13.36819431694695</v>
+        <v>17.60400327538114</v>
       </c>
     </row>
     <row r="66">
@@ -1754,19 +1754,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>60838.30424594173</v>
+        <v>71265.60447439243</v>
       </c>
       <c r="C66" t="n">
-        <v>2224.7873647892</v>
+        <v>1667.420332517737</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03656885891814787</v>
+        <v>0.02339726639260997</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9634311410818521</v>
+        <v>0.97660273360739</v>
       </c>
       <c r="F66" t="n">
-        <v>12.82205341423472</v>
+        <v>16.98678692407543</v>
       </c>
     </row>
     <row r="67">
@@ -1774,19 +1774,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>58613.51688115253</v>
+        <v>69598.18414187469</v>
       </c>
       <c r="C67" t="n">
-        <v>2300.568217038743</v>
+        <v>1740.48343731896</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03924978980025173</v>
+        <v>0.02500759838462185</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9607502101997483</v>
+        <v>0.9749924016153781</v>
       </c>
       <c r="F67" t="n">
-        <v>12.28976035630122</v>
+        <v>16.38177429442193</v>
       </c>
     </row>
     <row r="68">
@@ -1794,19 +1794,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>56312.94866411378</v>
+        <v>67857.70070455573</v>
       </c>
       <c r="C68" t="n">
-        <v>2372.096838679116</v>
+        <v>1813.68115754562</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04212347062178912</v>
+        <v>0.02672771312193689</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9578765293782109</v>
+        <v>0.9732722868780631</v>
       </c>
       <c r="F68" t="n">
-        <v>11.77141064465656</v>
+        <v>15.78912622099292</v>
       </c>
     </row>
     <row r="69">
@@ -1814,19 +1814,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>53940.85182543467</v>
+        <v>66044.0195470101</v>
       </c>
       <c r="C69" t="n">
-        <v>2438.293268995448</v>
+        <v>1886.539180523756</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04520309165465797</v>
+        <v>0.02856487526748608</v>
       </c>
       <c r="E69" t="n">
-        <v>0.954796908345342</v>
+        <v>0.9714351247325139</v>
       </c>
       <c r="F69" t="n">
-        <v>11.26708093262625</v>
+        <v>15.20899164306364</v>
       </c>
     </row>
     <row r="70">
@@ -1834,19 +1834,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>51502.55855643922</v>
+        <v>64157.48036648634</v>
       </c>
       <c r="C70" t="n">
-        <v>2498.010174816019</v>
+        <v>1958.522472796522</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04850264229258761</v>
+        <v>0.03052679845917994</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9514973577074124</v>
+        <v>0.9694732015408201</v>
       </c>
       <c r="F70" t="n">
-        <v>10.77682844227633</v>
+        <v>14.64150689899521</v>
       </c>
     </row>
     <row r="71">
@@ -1854,19 +1854,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49004.54838162321</v>
+        <v>62198.95789368982</v>
       </c>
       <c r="C71" t="n">
-        <v>2550.046891893148</v>
+        <v>2029.033779438385</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05203694302077111</v>
+        <v>0.03262166840329384</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9479630569792289</v>
+        <v>0.9673783315967062</v>
       </c>
       <c r="F71" t="n">
-        <v>10.30069046858717</v>
+        <v>14.08679505170394</v>
       </c>
     </row>
     <row r="72">
@@ -1874,19 +1874,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>46454.50148973006</v>
+        <v>60169.92411425144</v>
       </c>
       <c r="C72" t="n">
-        <v>2593.16812223235</v>
+        <v>2097.413229552878</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05582167581338993</v>
+        <v>0.03485816644159767</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9441783241866101</v>
+        <v>0.9651418335584023</v>
       </c>
       <c r="F72" t="n">
-        <v>9.838683977641459</v>
+        <v>13.54496525085306</v>
       </c>
     </row>
     <row r="73">
@@ -1894,19 +1894,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>43861.3333674977</v>
+        <v>58072.51088469856</v>
       </c>
       <c r="C73" t="n">
-        <v>2626.127697262551</v>
+        <v>2162.939325176322</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05987341231191512</v>
+        <v>0.03724549347402561</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9401265876880849</v>
+        <v>0.9627545065259744</v>
       </c>
       <c r="F73" t="n">
-        <v>9.390805304905237</v>
+        <v>13.01611213738119</v>
       </c>
     </row>
     <row r="74">
@@ -1914,19 +1914,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41235.20567023515</v>
+        <v>55909.57155952224</v>
       </c>
       <c r="C74" t="n">
-        <v>2647.697671263339</v>
+        <v>2224.831614558189</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06420963902635579</v>
+        <v>0.03979339409155724</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9357903609736442</v>
+        <v>0.9602066059084428</v>
       </c>
       <c r="F74" t="n">
-        <v>8.957029958879355</v>
+        <v>12.50031529589471</v>
       </c>
     </row>
     <row r="75">
@@ -1934,19 +1934,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>38587.50799897181</v>
+        <v>53684.73994496404</v>
       </c>
       <c r="C75" t="n">
-        <v>2656.702797932547</v>
+        <v>2282.255367674975</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06884877867737238</v>
+        <v>0.04251218074288288</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9311512213226276</v>
+        <v>0.9574878192571171</v>
       </c>
       <c r="F75" t="n">
-        <v>8.537312534487135</v>
+        <v>11.99763876029714</v>
       </c>
     </row>
     <row r="76">
@@ -1954,19 +1954,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>35930.80520103926</v>
+        <v>51402.48457728907</v>
       </c>
       <c r="C76" t="n">
-        <v>2652.060157296962</v>
+        <v>2334.328578464405</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0738102066585542</v>
+        <v>0.04541275772291697</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9261897933414458</v>
+        <v>0.954587242277083</v>
       </c>
       <c r="F76" t="n">
-        <v>8.131586739553173</v>
+        <v>11.50813057780491</v>
       </c>
     </row>
     <row r="77">
@@ -1974,19 +1974,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>33278.7450437423</v>
+        <v>49068.15599882467</v>
       </c>
       <c r="C77" t="n">
-        <v>2632.823335931791</v>
+        <v>2380.131610631949</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07911426144438893</v>
+        <v>0.04850664473083033</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9208857385556111</v>
+        <v>0.9514933552691697</v>
       </c>
       <c r="F77" t="n">
-        <v>7.739765536629855</v>
+        <v>11.03182243620395</v>
       </c>
     </row>
     <row r="78">
@@ -1994,19 +1994,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30645.92170781051</v>
+        <v>46688.02438819272</v>
       </c>
       <c r="C78" t="n">
-        <v>2598.230122163598</v>
+        <v>2418.719777425104</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08478224760005848</v>
+        <v>0.05180599969950306</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9152177523999415</v>
+        <v>0.9481940003004969</v>
       </c>
       <c r="F78" t="n">
-        <v>7.361741401257085</v>
+        <v>10.56872935883465</v>
       </c>
     </row>
     <row r="79">
@@ -2014,19 +2014,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28047.69158564692</v>
+        <v>44269.30461076761</v>
       </c>
       <c r="C79" t="n">
-        <v>2547.75216956537</v>
+        <v>2449.13909553661</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09083642986395191</v>
+        <v>0.05532364054665784</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9091635701360481</v>
+        <v>0.9446763594533422</v>
       </c>
       <c r="F79" t="n">
-        <v>6.997386696514349</v>
+        <v>10.11884947135683</v>
       </c>
     </row>
     <row r="80">
@@ -2034,19 +2034,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25499.93941608155</v>
+        <v>41820.165515231</v>
       </c>
       <c r="C80" t="n">
-        <v>2481.144527793682</v>
+        <v>2470.445374187933</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0973000165729393</v>
+        <v>0.05907306543988189</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9026999834270607</v>
+        <v>0.9409269345601181</v>
       </c>
       <c r="F80" t="n">
-        <v>6.646554162461738</v>
+        <v>9.68216384384065</v>
       </c>
     </row>
     <row r="81">
@@ -2054,19 +2054,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23018.79488828786</v>
+        <v>39349.72014104307</v>
       </c>
       <c r="C81" t="n">
-        <v>2398.492374577971</v>
+        <v>2481.726687618262</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1041971304848084</v>
+        <v>0.06306847110279035</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8958028695151916</v>
+        <v>0.9369315288972097</v>
       </c>
       <c r="F81" t="n">
-        <v>6.309077517789042</v>
+        <v>9.258636411161191</v>
       </c>
     </row>
     <row r="82">
@@ -2074,19 +2074,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20620.30251370989</v>
+        <v>36867.99345342481</v>
       </c>
       <c r="C82" t="n">
-        <v>2300.251756899409</v>
+        <v>2482.129128633119</v>
       </c>
       <c r="D82" t="n">
-        <v>0.111552764823408</v>
+        <v>0.06732476861722303</v>
       </c>
       <c r="E82" t="n">
-        <v>0.888447235176592</v>
+        <v>0.932675231382777</v>
       </c>
       <c r="F82" t="n">
-        <v>5.984772169721794</v>
+        <v>8.848213974046013</v>
       </c>
     </row>
     <row r="83">
@@ -2094,19 +2094,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18320.05075681048</v>
+        <v>34385.86432479169</v>
       </c>
       <c r="C83" t="n">
-        <v>2187.280729461302</v>
+        <v>2470.885550067378</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1193927221325072</v>
+        <v>0.07185759609613496</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8806072778674928</v>
+        <v>0.928142403903865</v>
       </c>
       <c r="F83" t="n">
-        <v>5.673436026993337</v>
+        <v>8.450826282444552</v>
       </c>
     </row>
     <row r="84">
@@ -2114,19 +2114,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16132.77002734918</v>
+        <v>31914.97877472431</v>
       </c>
       <c r="C84" t="n">
-        <v>2060.857044853963</v>
+        <v>2447.346769964409</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1277435332779356</v>
+        <v>0.07668332751336915</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8722564667220644</v>
+        <v>0.9233166724866309</v>
       </c>
       <c r="F84" t="n">
-        <v>5.374850409505469</v>
+        <v>8.066386202163097</v>
       </c>
     </row>
     <row r="85">
@@ -2134,19 +2134,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14071.91298249522</v>
+        <v>29467.6320047599</v>
       </c>
       <c r="C85" t="n">
-        <v>1922.678591712388</v>
+        <v>2411.014448453616</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1366323536895167</v>
+        <v>0.08181907687947798</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8633676463104833</v>
+        <v>0.918180923120522</v>
       </c>
       <c r="F85" t="n">
-        <v>5.088781047190322</v>
+        <v>7.694789964948515</v>
       </c>
     </row>
     <row r="86">
@@ -2154,19 +2154,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12149.23439078283</v>
+        <v>27056.61755630629</v>
       </c>
       <c r="C86" t="n">
-        <v>1774.843183928566</v>
+        <v>2361.574547873419</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1460868336917652</v>
+        <v>0.08728269684704137</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8539131663082348</v>
+        <v>0.9127173031529586</v>
       </c>
       <c r="F86" t="n">
-        <v>4.81497915957359</v>
+        <v>7.335917501418305</v>
       </c>
     </row>
     <row r="87">
@@ -2174,19 +2174,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10374.39120685426</v>
+        <v>24695.04300843287</v>
       </c>
       <c r="C87" t="n">
-        <v>1619.805151383193</v>
+        <v>2298.929976570143</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1561349595447107</v>
+        <v>0.09309277071455613</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8438650404552893</v>
+        <v>0.9069072292854439</v>
       </c>
       <c r="F87" t="n">
-        <v>4.553182606644601</v>
+        <v>6.989632855434868</v>
       </c>
     </row>
     <row r="88">
@@ -2194,19 +2194,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8754.586055471073</v>
+        <v>22396.11303186272</v>
       </c>
       <c r="C88" t="n">
-        <v>1460.307515484275</v>
+        <v>2223.230711652836</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1668048616155499</v>
+        <v>0.09926859667522969</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8331951383844501</v>
+        <v>0.9007314033247703</v>
       </c>
       <c r="F88" t="n">
-        <v>4.303117100878824</v>
+        <v>6.655784677720651</v>
       </c>
     </row>
     <row r="89">
@@ -2214,19 +2214,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7294.278539986798</v>
+        <v>20172.88232020989</v>
       </c>
       <c r="C89" t="n">
-        <v>1299.290344690341</v>
+        <v>2134.899424662352</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1781245859433129</v>
+        <v>0.1058301630265069</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8218754140566871</v>
+        <v>0.8941698369734931</v>
       </c>
       <c r="F89" t="n">
-        <v>4.064497469647984</v>
+        <v>6.3342067957201</v>
       </c>
     </row>
     <row r="90">
@@ -2234,19 +2234,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5994.988195296456</v>
+        <v>18037.98289554754</v>
       </c>
       <c r="C90" t="n">
-        <v>1139.778098708036</v>
+        <v>2034.650431481878</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1901218253611046</v>
+        <v>0.1127981129189399</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8098781746388954</v>
+        <v>0.8872018870810601</v>
       </c>
       <c r="F90" t="n">
-        <v>3.837028956802607</v>
+        <v>6.024718855947106</v>
       </c>
     </row>
     <row r="91">
@@ -2254,19 +2254,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4855.21009658842</v>
+        <v>16003.33246406566</v>
       </c>
       <c r="C91" t="n">
-        <v>984.7512212632259</v>
+        <v>1923.49969446613</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2028236063265676</v>
+        <v>0.1201936970806057</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7971763936734324</v>
+        <v>0.8798063029193943</v>
       </c>
       <c r="F91" t="n">
-        <v>3.620408551928818</v>
+        <v>5.727127034325541</v>
       </c>
     </row>
     <row r="92">
@@ -2274,19 +2274,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3870.458875325194</v>
+        <v>14079.83276959953</v>
       </c>
       <c r="C92" t="n">
-        <v>837.0096747404634</v>
+        <v>1802.763664369774</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2162559277083491</v>
+        <v>0.128038712807883</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7837440722916509</v>
+        <v>0.871961287192117</v>
       </c>
       <c r="F92" t="n">
-        <v>3.414326335668076</v>
+        <v>5.441224809348106</v>
       </c>
     </row>
     <row r="93">
@@ -2294,19 +2294,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3033.449200584731</v>
+        <v>12277.06910522975</v>
       </c>
       <c r="C93" t="n">
-        <v>699.0381898211847</v>
+        <v>1674.045004669849</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2304433480166529</v>
+        <v>0.1363554273679818</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7695566519833471</v>
+        <v>0.8636445726320182</v>
       </c>
       <c r="F93" t="n">
-        <v>3.218466829543793</v>
+        <v>5.166793792256307</v>
       </c>
     </row>
     <row r="94">
@@ -2314,19 +2314,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2334.411010763547</v>
+        <v>10603.02410055991</v>
       </c>
       <c r="C94" t="n">
-        <v>572.8843465232333</v>
+        <v>1539.203726505986</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2454085179866644</v>
+        <v>0.145166483817075</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7545914820133356</v>
+        <v>0.854833516182925</v>
       </c>
       <c r="F94" t="n">
-        <v>3.032510338956332</v>
+        <v>4.903604607893176</v>
       </c>
     </row>
     <row r="95">
@@ -2334,19 +2334,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1761.526664240313</v>
+        <v>9063.820374053919</v>
       </c>
       <c r="C95" t="n">
-        <v>460.0608361056541</v>
+        <v>1400.312999049603</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2611716560669053</v>
+        <v>0.1544947871052407</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7388283439330947</v>
+        <v>0.8455052128947593</v>
       </c>
       <c r="F95" t="n">
-        <v>2.856134278377099</v>
+        <v>4.651417819409474</v>
       </c>
     </row>
     <row r="96">
@@ -2354,19 +2354,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1301.465828134659</v>
+        <v>7663.507375004317</v>
       </c>
       <c r="C96" t="n">
-        <v>361.4820885739402</v>
+        <v>1259.599884549784</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2777499652772586</v>
+        <v>0.1643633682219917</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7222500347227414</v>
+        <v>0.8356366317780083</v>
       </c>
       <c r="F96" t="n">
-        <v>2.689014468278792</v>
+        <v>4.409984889621496</v>
       </c>
     </row>
     <row r="97">
@@ -2374,19 +2374,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>939.983739560719</v>
+        <v>6403.907490454533</v>
       </c>
       <c r="C97" t="n">
-        <v>277.4427722837186</v>
+        <v>1119.372444536985</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2951569911340971</v>
+        <v>0.1747952240418037</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7048430088659029</v>
+        <v>0.8252047759581963</v>
       </c>
       <c r="F97" t="n">
-        <v>2.530826393963574</v>
+        <v>4.179049171530583</v>
       </c>
     </row>
     <row r="98">
@@ -2394,19 +2394,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>662.5409672770004</v>
+        <v>5284.535045917548</v>
       </c>
       <c r="C98" t="n">
-        <v>207.641612512259</v>
+        <v>981.9359999460876</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3134019219455249</v>
+        <v>0.1858131304672983</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6865980780544751</v>
+        <v>0.8141868695327017</v>
       </c>
       <c r="F98" t="n">
-        <v>2.381246417171942</v>
+        <v>3.958346920324851</v>
       </c>
     </row>
     <row r="99">
@@ -2414,19 +2414,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>454.8993547647414</v>
+        <v>4302.59904597146</v>
       </c>
       <c r="C99" t="n">
-        <v>151.2489564220377</v>
+        <v>849.5026878814019</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3324888348110728</v>
+        <v>0.1974394264501115</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6675111651889272</v>
+        <v>0.8025605735498885</v>
       </c>
       <c r="F99" t="n">
-        <v>2.239952932147129</v>
+        <v>3.747608319094793</v>
       </c>
     </row>
     <row r="100">
@@ -2434,19 +2434,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>303.6503983427037</v>
+        <v>3453.096358090058</v>
       </c>
       <c r="C100" t="n">
-        <v>107.0112263423681</v>
+        <v>724.0996876412266</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3524158931666999</v>
+        <v>0.2096957665096069</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6475841068333001</v>
+        <v>0.7903042334903931</v>
       </c>
       <c r="F100" t="n">
-        <v>2.106627458665304</v>
+        <v>3.546558510505894</v>
       </c>
     </row>
     <row r="101">
@@ -2454,19 +2454,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>196.6391720003356</v>
+        <v>2728.996670448832</v>
       </c>
       <c r="C101" t="n">
-        <v>73.38072562353391</v>
+        <v>607.4824077827107</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3731745047391101</v>
+        <v>0.2226028394834206</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6268254952608899</v>
+        <v>0.7773971605165794</v>
       </c>
       <c r="F101" t="n">
-        <v>1.980955665391087</v>
+        <v>3.354918626780868</v>
       </c>
     </row>
     <row r="102">
@@ -2474,19 +2474,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>123.2584463768017</v>
+        <v>2121.514262666121</v>
       </c>
       <c r="C102" t="n">
-        <v>48.65608094513433</v>
+        <v>501.0593477077775</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3947484523404786</v>
+        <v>0.2361800514497098</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6052515476595214</v>
+        <v>0.7638199485502902</v>
       </c>
       <c r="F102" t="n">
-        <v>1.862628317750064</v>
+        <v>3.172406810546849</v>
       </c>
     </row>
     <row r="103">
@@ -2494,19 +2494,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>74.60236543166734</v>
+        <v>1620.454914958343</v>
       </c>
       <c r="C103" t="n">
-        <v>31.11761750054707</v>
+        <v>405.835108403661</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4171130140511364</v>
+        <v>0.2504451710796864</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5828869859488636</v>
+        <v>0.7495548289203136</v>
       </c>
       <c r="F103" t="n">
-        <v>1.75134214529361</v>
+        <v>2.998739219391961</v>
       </c>
     </row>
     <row r="104">
@@ -2514,19 +2514,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>43.48474793112027</v>
+        <v>1214.619806554682</v>
       </c>
       <c r="C104" t="n">
-        <v>19.14346860729952</v>
+        <v>322.3770237636083</v>
       </c>
       <c r="D104" t="n">
-        <v>0.440234093977565</v>
+        <v>0.2654139361336809</v>
       </c>
       <c r="E104" t="n">
-        <v>0.559765906022435</v>
+        <v>0.7345860638663191</v>
       </c>
       <c r="F104" t="n">
-        <v>1.646800624235226</v>
+        <v>2.833631007342368</v>
       </c>
     </row>
     <row r="105">
@@ -2534,19 +2534,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>24.34127932382074</v>
+        <v>892.242782791074</v>
       </c>
       <c r="C105" t="n">
-        <v>11.29599396184089</v>
+        <v>250.8091075737486</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4640673898674859</v>
+        <v>0.2810996204297431</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5359326101325141</v>
+        <v>0.7189003795702569</v>
       </c>
       <c r="F105" t="n">
-        <v>1.548714671431352</v>
+        <v>2.676797276904296</v>
       </c>
     </row>
     <row r="106">
@@ -2554,19 +2554,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.04528536197985</v>
+        <v>641.4336752173253</v>
       </c>
       <c r="C106" t="n">
-        <v>6.373373689843154</v>
+        <v>190.8345756932468</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4885576292886769</v>
+        <v>0.2975125614173434</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5114423707113231</v>
+        <v>0.7024874385826566</v>
       </c>
       <c r="F106" t="n">
-        <v>1.456803246535135</v>
+        <v>2.527953995803338</v>
       </c>
     </row>
     <row r="107">
@@ -2574,19 +2574,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.671911672136696</v>
+        <v>450.5990995240786</v>
       </c>
       <c r="C107" t="n">
-        <v>3.426946777922375</v>
+        <v>141.7853547246312</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5136379116399313</v>
+        <v>0.3146596495074768</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4863620883600687</v>
+        <v>0.6853403504925232</v>
       </c>
       <c r="F107" t="n">
-        <v>1.370793859344105</v>
+        <v>2.386818873081847</v>
       </c>
     </row>
     <row r="108">
@@ -2594,19 +2594,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.244964894214321</v>
+        <v>308.8137447994473</v>
       </c>
       <c r="C108" t="n">
-        <v>1.749779819667622</v>
+        <v>102.694090496799</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5392291986848392</v>
+        <v>0.3325437815712885</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4607708013151608</v>
+        <v>0.6674562184287115</v>
       </c>
       <c r="F108" t="n">
-        <v>1.290422979472508</v>
+        <v>2.253112189769471</v>
       </c>
     </row>
     <row r="109">
@@ -2614,19 +2614,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.495185074546699</v>
+        <v>206.1196543026483</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8451384133459581</v>
+        <v>72.38165440235987</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5652400012100054</v>
+        <v>0.3511632825469467</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4347599987899946</v>
+        <v>0.6488367174530533</v>
       </c>
       <c r="F109" t="n">
-        <v>1.215436345394354</v>
+        <v>2.126557579906215</v>
       </c>
     </row>
     <row r="110">
@@ -2634,19 +2634,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6500466612007407</v>
+        <v>133.7379999002884</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3845457068610646</v>
+        <v>49.55144032404993</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5915663133331795</v>
+        <v>0.370511300909197</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4084336866668205</v>
+        <v>0.629488699090803</v>
       </c>
       <c r="F110" t="n">
-        <v>1.14558916962353</v>
+        <v>2.006882758255593</v>
       </c>
     </row>
     <row r="111">
@@ -2654,19 +2654,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2655009543396761</v>
+        <v>84.18655957623849</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1641039756042438</v>
+        <v>32.88118115431447</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6180918483415045</v>
+        <v>0.3905751858708231</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3819081516584955</v>
+        <v>0.6094248141291769</v>
       </c>
       <c r="F111" t="n">
-        <v>1.080646236337918</v>
+        <v>1.893820191580956</v>
       </c>
     </row>
     <row r="112">
@@ -2674,19 +2674,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1013969787354323</v>
+        <v>51.30537842192403</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06536947931166227</v>
+        <v>21.10374178148575</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6446886300451422</v>
+        <v>0.4113358566022702</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3553113699548578</v>
+        <v>0.5886641433977298</v>
       </c>
       <c r="F112" t="n">
-        <v>1.020381887153683</v>
+        <v>1.787107710854574</v>
       </c>
     </row>
     <row r="113">
@@ -2694,19 +2694,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03602749942377004</v>
+        <v>30.20163664043827</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02418230577424123</v>
+        <v>13.07027701340797</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6712179907297799</v>
+        <v>0.4327671764618085</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3287820092702201</v>
+        <v>0.5672328235381915</v>
       </c>
       <c r="F113" t="n">
-        <v>0.964579890082881</v>
+        <v>1.686489062210372</v>
       </c>
     </row>
     <row r="114">
@@ -2714,19 +2714,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01184519364952881</v>
+        <v>17.1313596270303</v>
       </c>
       <c r="C114" t="n">
-        <v>0.008262401854711613</v>
+        <v>7.791947920935902</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6975320200898771</v>
+        <v>0.4548353481904358</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3024679799101229</v>
+        <v>0.5451646518095642</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9130331860739102</v>
+        <v>1.591714394822016</v>
       </c>
     </row>
     <row r="115">
@@ -2734,19 +2734,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.003582791794817194</v>
+        <v>9.339411706094401</v>
       </c>
       <c r="C115" t="n">
-        <v>0.002592062078908941</v>
+        <v>4.459553672007787</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7234754982576922</v>
+        <v>0.4774983491837843</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2765245017423078</v>
+        <v>0.5225016508162157</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8655435071065744</v>
+        <v>1.502540684173653</v>
       </c>
     </row>
     <row r="116">
@@ -2754,19 +2754,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0009907297159082533</v>
+        <v>4.879858034086614</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0007419459219956255</v>
+        <v>2.44337141147017</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7488883295636743</v>
+        <v>0.5007054292159356</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2511116704363257</v>
+        <v>0.4992945707840644</v>
       </c>
       <c r="F116" t="n">
-        <v>0.821920859827543</v>
+        <v>1.418732089377237</v>
       </c>
     </row>
     <row r="117">
@@ -2774,19 +2774,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0002487837939126278</v>
+        <v>2.436486622616444</v>
       </c>
       <c r="C117" t="n">
-        <v>0.00019246125055752</v>
+        <v>1.277685535301723</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7736084715594932</v>
+        <v>0.5243966962271553</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2263915284405068</v>
+        <v>0.4756033037728447</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7819828694866351</v>
+        <v>1.340060243263834</v>
       </c>
     </row>
     <row r="118">
@@ -2794,19 +2794,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.632254335510787e-05</v>
+        <v>1.158801087314721</v>
       </c>
       <c r="C118" t="n">
-        <v>4.491583862725805e-05</v>
+        <v>0.6356056628492537</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7974753260709178</v>
+        <v>0.5485028188247016</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2025246739290822</v>
+        <v>0.4514971811752984</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7455539808802392</v>
+        <v>1.26630447391732</v>
       </c>
     </row>
     <row r="119">
@@ -2814,19 +2814,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.140670472784982e-05</v>
+        <v>0.5231954244654673</v>
       </c>
       <c r="C119" t="n">
-        <v>9.357302310860072e-06</v>
+        <v>0.2997621379916046</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8203335261246775</v>
+        <v>0.5729448767596972</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1796664738753225</v>
+        <v>0.4270551232403028</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7124645166258825</v>
+        <v>1.197251956086509</v>
       </c>
     </row>
     <row r="120">
@@ -2834,19 +2834,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.049402416989748e-06</v>
+        <v>0.2234332864738627</v>
       </c>
       <c r="C120" t="n">
-        <v>1.725672695183973e-06</v>
+        <v>0.1335314164392539</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8420370157066159</v>
+        <v>0.5976343925589369</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1579629842933841</v>
+        <v>0.4023656074410631</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6825495989492163</v>
+        <v>1.132697790383766</v>
       </c>
     </row>
     <row r="121">
@@ -2854,19 +2854,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.237297218057748e-07</v>
+        <v>0.08990187003460882</v>
       </c>
       <c r="C121" t="n">
-        <v>2.792017605610935e-07</v>
+        <v>0.05596153874382179</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8624532804825491</v>
+        <v>0.6224735783836166</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1375467195174509</v>
+        <v>0.3775264216163834</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6556479498397396</v>
+        <v>1.072445006936736</v>
       </c>
     </row>
     <row r="122">
@@ -2874,19 +2874,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.452796124468132e-08</v>
+        <v>0.03394033129078704</v>
       </c>
       <c r="C122" t="n">
-        <v>3.924995289504024e-08</v>
+        <v>0.02197147139053067</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8814675497798249</v>
+        <v>0.6473558316885001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1185324502201751</v>
+        <v>0.3526441683114999</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6316005964067513</v>
+        <v>1.016304486678857</v>
       </c>
     </row>
     <row r="123">
@@ -2894,19 +2894,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.278008349641075e-09</v>
+        <v>0.01196885990025637</v>
       </c>
       <c r="C123" t="n">
-        <v>4.74485961021082e-09</v>
+        <v>0.008045066799387993</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8989867571038398</v>
+        <v>0.672166510965315</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1010132428961602</v>
+        <v>0.327833489034685</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6102495237574349</v>
+        <v>0.9640947818617868</v>
       </c>
     </row>
     <row r="124">
@@ -2914,19 +2914,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.331487394302556e-10</v>
+        <v>0.003923793100868378</v>
       </c>
       <c r="C124" t="n">
-        <v>4.878007192503324e-10</v>
+        <v>0.00273403632405266</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9149430227887552</v>
+        <v>0.696784018364166</v>
       </c>
       <c r="E124" t="n">
-        <v>0.08505697721124483</v>
+        <v>0.303215981635834</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5914363364293672</v>
+        <v>0.9156417735977097</v>
       </c>
     </row>
     <row r="125">
@@ -2934,19 +2934,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.534802017992316e-11</v>
+        <v>0.001189756776815718</v>
       </c>
       <c r="C125" t="n">
-        <v>4.214175248850279e-11</v>
+        <v>0.000857911254935346</v>
       </c>
       <c r="D125" t="n">
-        <v>0.929296412970199</v>
+        <v>0.7210812089101706</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07070358702980095</v>
+        <v>0.2789187910898294</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5750010102319858</v>
+        <v>0.870777923232623</v>
       </c>
     </row>
     <row r="126">
@@ -2954,19 +2954,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.206267691420367e-12</v>
+        <v>0.0003318455218803721</v>
       </c>
       <c r="C126" t="n">
-        <v>3.020421959295569e-12</v>
+        <v>0.0002472007342250149</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9420367386596877</v>
+        <v>0.7449271360489503</v>
       </c>
       <c r="E126" t="n">
-        <v>0.05796326134031227</v>
+        <v>0.2550728639510497</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5607808370510762</v>
+        <v>0.8293400626894629</v>
       </c>
     </row>
     <row r="127">
@@ -2974,19 +2974,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.858457321247984e-13</v>
+        <v>8.464478765535722e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>1.771452138472278e-13</v>
+        <v>6.502320580192157e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9531841911132612</v>
+        <v>0.7681891301644279</v>
       </c>
       <c r="E127" t="n">
-        <v>0.04681580888673875</v>
+        <v>0.2318108698355721</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5486096821609361</v>
+        <v>0.7911607200704253</v>
       </c>
     </row>
     <row r="128">
@@ -2994,19 +2994,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8.700518277570608e-15</v>
+        <v>1.962158185343565e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>8.376760394036744e-15</v>
+        <v>1.551547526482338e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>0.962788666927062</v>
+        <v>0.790735190501814</v>
       </c>
       <c r="E128" t="n">
-        <v>0.037211333072938</v>
+        <v>0.209264809498186</v>
       </c>
       <c r="F128" t="n">
-        <v>0.5383176819295635</v>
+        <v>0.7560270373729719</v>
       </c>
     </row>
     <row r="129">
@@ -3014,19 +3014,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.237578835338647e-16</v>
+        <v>4.106106588612276e-06</v>
       </c>
       <c r="C129" t="n">
-        <v>3.143455029278178e-16</v>
+        <v>3.33595148895662e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9709277176410056</v>
+        <v>0.8124366518415339</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02907228235899439</v>
+        <v>0.1875633481584661</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5297315028853448</v>
+        <v>0.7234595868599265</v>
       </c>
     </row>
     <row r="130">
@@ -3034,19 +3034,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9.412380606046937e-18</v>
+        <v>7.701550996556558e-07</v>
       </c>
       <c r="C130" t="n">
-        <v>9.202514260500957e-18</v>
+        <v>6.416709452728503e-07</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9777031598774116</v>
+        <v>0.8331710658797791</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02229684012258837</v>
+        <v>0.1668289341202209</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5226752244013781</v>
+        <v>0.6913819467070551</v>
       </c>
     </row>
     <row r="131">
@@ -3054,19 +3054,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.0986634554598e-19</v>
+        <v>1.284841543828056e-07</v>
       </c>
       <c r="C131" t="n">
-        <v>2.063482500319547e-19</v>
+        <v>1.095745265271457e-07</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9832364950898975</v>
+        <v>0.8528252145449737</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01676350491010248</v>
+        <v>0.1471747854550263</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5169703095465288</v>
+        <v>0.6471747854550263</v>
       </c>
     </row>
     <row r="132">
@@ -3074,38 +3074,18 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.518095514025299e-21</v>
+        <v>1.890962785565988e-08</v>
       </c>
       <c r="C132" t="n">
-        <v>3.47469418073654e-21</v>
+        <v>1.890962785565988e-08</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9876634010885337</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0.01233659891146632</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5123365989114663</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4.340133328875906e-23</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4.340133328875906e-23</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_130.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_130.xlsx
@@ -477,16 +477,16 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>41.02974113839863</v>
+        <v>46.28596597436862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004102974113839863</v>
+        <v>0.0004628596597436863</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999589702588616</v>
+        <v>0.9995371403402563</v>
       </c>
       <c r="F2" t="n">
-        <v>71.66319036298292</v>
+        <v>65.88495753533554</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99958.97025886161</v>
+        <v>99953.71403402563</v>
       </c>
       <c r="C3" t="n">
-        <v>43.18377188662431</v>
+        <v>48.98423668463084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004320149734915457</v>
+        <v>0.0004900692001095219</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995679850265085</v>
+        <v>0.9995099307998905</v>
       </c>
       <c r="F3" t="n">
-        <v>70.69240042058567</v>
+        <v>64.9152356090316</v>
       </c>
     </row>
     <row r="4">
@@ -514,19 +514,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99915.78648697498</v>
+        <v>99904.729797341</v>
       </c>
       <c r="C4" t="n">
-        <v>45.48688584943878</v>
+        <v>51.88238739780459</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004552522424008387</v>
+        <v>0.0005193186298891872</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995447477575992</v>
+        <v>0.9994806813701108</v>
       </c>
       <c r="F4" t="n">
-        <v>69.72273769474938</v>
+        <v>63.94681901007346</v>
       </c>
     </row>
     <row r="5">
@@ -534,19 +534,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99870.29960112553</v>
+        <v>99852.84740994319</v>
       </c>
       <c r="C5" t="n">
-        <v>47.94928101381507</v>
+        <v>54.99503534525562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004801155218850939</v>
+        <v>0.000550760812252804</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995198844781149</v>
+        <v>0.9994492391877472</v>
       </c>
       <c r="F5" t="n">
-        <v>68.75426585457552</v>
+        <v>62.97978524517265</v>
       </c>
     </row>
     <row r="6">
@@ -554,19 +554,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99822.35032011171</v>
+        <v>99797.85237459793</v>
       </c>
       <c r="C6" t="n">
-        <v>50.58183621406519</v>
+        <v>58.3378380841192</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005067185460155832</v>
+        <v>0.0005845600551116492</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994932814539844</v>
+        <v>0.9994154399448884</v>
       </c>
       <c r="F6" t="n">
-        <v>67.78705152795786</v>
+        <v>62.01421562534781</v>
       </c>
     </row>
     <row r="7">
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99771.76848389764</v>
+        <v>99739.51453651382</v>
       </c>
       <c r="C7" t="n">
-        <v>53.39615414241699</v>
+        <v>61.92756304422883</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005351829976937283</v>
+        <v>0.0006208929663634732</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9994648170023063</v>
+        <v>0.9993791070336365</v>
       </c>
       <c r="F7" t="n">
-        <v>66.82116441050402</v>
+        <v>61.05019541096938</v>
       </c>
     </row>
     <row r="8">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99718.37232975522</v>
+        <v>99677.58697346959</v>
       </c>
       <c r="C8" t="n">
-        <v>56.40460671354154</v>
+        <v>65.78216100506052</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0005656390632512442</v>
+        <v>0.0006599493727970085</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994343609367488</v>
+        <v>0.999340050627203</v>
       </c>
       <c r="F8" t="n">
-        <v>65.85667737601911</v>
+        <v>60.08781395850355</v>
       </c>
     </row>
     <row r="9">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99661.96772304169</v>
+        <v>99611.80481246453</v>
       </c>
       <c r="C9" t="n">
-        <v>59.62038285531604</v>
+        <v>69.92084360380376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0005982260256088834</v>
+        <v>0.0007019333073569056</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994017739743911</v>
+        <v>0.9992980666926431</v>
       </c>
       <c r="F9" t="n">
-        <v>64.89366658833069</v>
+        <v>59.12716486856021</v>
       </c>
     </row>
     <row r="10">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99602.34734018637</v>
+        <v>99541.88396886073</v>
       </c>
       <c r="C10" t="n">
-        <v>63.05753879039505</v>
+        <v>74.36416495394062</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0006330928986545414</v>
+        <v>0.0007470640698060693</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993669071013455</v>
+        <v>0.9992529359301939</v>
       </c>
       <c r="F10" t="n">
-        <v>63.93221161420586</v>
+        <v>58.16834613479978</v>
       </c>
     </row>
     <row r="11">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99539.28980139598</v>
+        <v>99467.51980390679</v>
       </c>
       <c r="C11" t="n">
-        <v>66.73105086317743</v>
+        <v>79.13410742738209</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0006703991056830061</v>
+        <v>0.0007955773661934007</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999329600894317</v>
+        <v>0.9992044226338066</v>
       </c>
       <c r="F11" t="n">
-        <v>62.97239553708098</v>
+        <v>57.21146029320087</v>
       </c>
     </row>
     <row r="12">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99472.5587505328</v>
+        <v>99388.38569647941</v>
       </c>
       <c r="C12" t="n">
-        <v>70.65687095394316</v>
+        <v>84.2541716187915</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0007103152049314776</v>
+        <v>0.0008477265329179806</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9992896847950685</v>
+        <v>0.999152273467082</v>
       </c>
       <c r="F12" t="n">
-        <v>62.01430507129317</v>
+        <v>56.25661457113542</v>
       </c>
     </row>
     <row r="13">
@@ -694,19 +694,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99401.90187957886</v>
+        <v>99304.13152486063</v>
       </c>
       <c r="C13" t="n">
-        <v>74.85198450612164</v>
+        <v>89.74947046970127</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0007530236654506028</v>
+        <v>0.0009037838516037233</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9992469763345494</v>
+        <v>0.9990962161483963</v>
       </c>
       <c r="F13" t="n">
-        <v>61.0580306764683</v>
+        <v>55.30392103563819</v>
       </c>
     </row>
     <row r="14">
@@ -714,19 +714,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99327.04989507273</v>
+        <v>99214.38205439092</v>
       </c>
       <c r="C14" t="n">
-        <v>79.33447117322143</v>
+        <v>95.64682747863584</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0007987196967697008</v>
+        <v>0.000964041961438622</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9992012803032303</v>
+        <v>0.9990359580385614</v>
       </c>
       <c r="F14" t="n">
-        <v>60.10366667168516</v>
+        <v>54.35349674019598</v>
       </c>
     </row>
     <row r="15">
@@ -734,19 +734,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99247.71542389951</v>
+        <v>99118.73522691229</v>
       </c>
       <c r="C15" t="n">
-        <v>84.12356806795022</v>
+        <v>101.9748788619895</v>
       </c>
       <c r="D15" t="n">
-        <v>0.000847612136044118</v>
+        <v>0.00102881537610966</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9991523878639559</v>
+        <v>0.9989711846238903</v>
       </c>
       <c r="F15" t="n">
-        <v>59.15131134899774</v>
+        <v>53.4054638693168</v>
       </c>
     </row>
     <row r="16">
@@ -754,19 +754,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99163.59185583156</v>
+        <v>99016.7603480503</v>
       </c>
       <c r="C16" t="n">
-        <v>89.23973556833595</v>
+        <v>108.7641794565027</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0008999243966281156</v>
+        <v>0.001098442112973497</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9991000756033719</v>
+        <v>0.9989015578870265</v>
       </c>
       <c r="F16" t="n">
-        <v>58.20106708585845</v>
+        <v>52.45994988007141</v>
       </c>
     </row>
     <row r="17">
@@ -774,19 +774,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>99074.35212026323</v>
+        <v>98907.9961685938</v>
       </c>
       <c r="C17" t="n">
-        <v>94.70472560042595</v>
+        <v>116.0473120652111</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0009558954822683763</v>
+        <v>0.00117328544263906</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9990441045177316</v>
+        <v>0.9988267145573609</v>
       </c>
       <c r="F17" t="n">
-        <v>57.25304045594421</v>
+        <v>51.51708763972911</v>
       </c>
     </row>
     <row r="18">
@@ -794,19 +794,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98979.6473946628</v>
+        <v>98791.94885652859</v>
       </c>
       <c r="C18" t="n">
-        <v>100.5416522778493</v>
+        <v>123.8589998443516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001015781071405097</v>
+        <v>0.001253735767721587</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9989842189285949</v>
+        <v>0.9987462642322784</v>
       </c>
       <c r="F18" t="n">
-        <v>56.30734233784462</v>
+        <v>50.5770155585374</v>
       </c>
     </row>
     <row r="19">
@@ -814,19 +814,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98879.10574238494</v>
+        <v>98668.08985668424</v>
       </c>
       <c r="C19" t="n">
-        <v>106.7750647299199</v>
+        <v>132.2362212037681</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001079854676357073</v>
+        <v>0.00134021264013362</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9989201453236429</v>
+        <v>0.9986597873598664</v>
       </c>
       <c r="F19" t="n">
-        <v>55.36408802102768</v>
+        <v>49.63987771661991</v>
       </c>
     </row>
     <row r="20">
@@ -834,19 +834,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98772.33067765502</v>
+        <v>98535.85363548047</v>
       </c>
       <c r="C20" t="n">
-        <v>113.4310218939008</v>
+        <v>141.2183265481449</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001148408882484353</v>
+        <v>0.001433166926939733</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9988515911175156</v>
+        <v>0.9985668330730603</v>
       </c>
       <c r="F20" t="n">
-        <v>54.42339730845264</v>
+        <v>48.70582398389132</v>
       </c>
     </row>
     <row r="21">
@@ -854,19 +854,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98658.89965576111</v>
+        <v>98394.63530893232</v>
       </c>
       <c r="C21" t="n">
-        <v>120.5371689818844</v>
+        <v>150.8471560146982</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00122175667276303</v>
+        <v>0.001533083135488833</v>
       </c>
       <c r="E21" t="n">
-        <v>0.998778243327237</v>
+        <v>0.9984669168645112</v>
       </c>
       <c r="F21" t="n">
-        <v>53.4853946151531</v>
+        <v>47.77501013180991</v>
       </c>
     </row>
     <row r="22">
@@ -874,19 +874,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98538.36248677922</v>
+        <v>98243.78815291762</v>
       </c>
       <c r="C22" t="n">
-        <v>128.1228152552156</v>
+        <v>161.1671571644356</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00130023284355274</v>
+        <v>0.001640481909284452</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9986997671564473</v>
+        <v>0.9983595180907155</v>
       </c>
       <c r="F22" t="n">
-        <v>52.55020906206617</v>
+        <v>46.84759793571106</v>
       </c>
     </row>
     <row r="23">
@@ -894,19 +894,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>98410.239671524</v>
+        <v>98082.62099575318</v>
       </c>
       <c r="C23" t="n">
-        <v>136.2190126516928</v>
+        <v>172.2255013516919</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001384195517726283</v>
+        <v>0.00175592270682845</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9986158044822737</v>
+        <v>0.9982440772931716</v>
       </c>
       <c r="F23" t="n">
-        <v>51.61797456433415</v>
+        <v>45.92375526638661</v>
       </c>
     </row>
     <row r="24">
@@ -914,19 +914,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>98274.02065887231</v>
+        <v>97910.39549440148</v>
       </c>
       <c r="C24" t="n">
-        <v>144.8586347068926</v>
+        <v>184.0721972291555</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001474027761718677</v>
+        <v>0.001880006676509449</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9985259722382813</v>
+        <v>0.9981199933234906</v>
       </c>
       <c r="F24" t="n">
-        <v>50.68882991325774</v>
+        <v>45.00365616949835</v>
       </c>
     </row>
     <row r="25">
@@ -934,19 +934,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>98129.16202416542</v>
+        <v>97726.32329717233</v>
       </c>
       <c r="C25" t="n">
-        <v>154.0764550935945</v>
+        <v>196.7601995363588</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001570139313486152</v>
+        <v>0.002013379741485188</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9984298606865138</v>
+        <v>0.9979866202585148</v>
       </c>
       <c r="F25" t="n">
-        <v>49.76291885102917</v>
+        <v>44.08748093133801</v>
       </c>
     </row>
     <row r="26">
@@ -954,19 +954,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97975.08556907182</v>
+        <v>97529.56309763597</v>
       </c>
       <c r="C26" t="n">
-        <v>163.9092249666821</v>
+        <v>210.3455109642099</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001672968428806598</v>
+        <v>0.002156735909435326</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9983270315711934</v>
+        <v>0.9978432640905647</v>
       </c>
       <c r="F26" t="n">
-        <v>48.84039013732653</v>
+        <v>43.17541612937381</v>
       </c>
     </row>
     <row r="27">
@@ -974,19 +974,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97811.17634410513</v>
+        <v>97319.21758667176</v>
       </c>
       <c r="C27" t="n">
-        <v>174.3957481454433</v>
+        <v>224.8872744818051</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001782983853827802</v>
+        <v>0.002310820823045789</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9982170161461722</v>
+        <v>0.9976891791769542</v>
       </c>
       <c r="F27" t="n">
-        <v>47.9213976068014</v>
+        <v>42.2676546659542</v>
       </c>
     </row>
     <row r="28">
@@ -994,19 +994,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>97636.78059595969</v>
+        <v>97094.33031218995</v>
       </c>
       <c r="C28" t="n">
-        <v>185.5769529876072</v>
+        <v>240.4478530476344</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001900686932269524</v>
+        <v>0.002476435568117274</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9980993130677305</v>
+        <v>0.9975235644318827</v>
       </c>
       <c r="F28" t="n">
-        <v>47.00610021644565</v>
+        <v>41.36439578347488</v>
       </c>
     </row>
     <row r="29">
@@ -1014,19 +1014,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>97451.20364297208</v>
+        <v>96853.88245914232</v>
       </c>
       <c r="C29" t="n">
-        <v>197.4959596073467</v>
+        <v>257.0928931002621</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002026613856211612</v>
+        <v>0.002654440757279053</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9979733861437884</v>
+        <v>0.9973455592427209</v>
       </c>
       <c r="F29" t="n">
-        <v>46.09466208177801</v>
+        <v>40.46584505925761</v>
       </c>
     </row>
     <row r="30">
@@ -1034,19 +1034,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>97253.70768336473</v>
+        <v>96596.78956604206</v>
       </c>
       <c r="C30" t="n">
-        <v>210.1981408599101</v>
+        <v>274.8913676269592</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002161338069950669</v>
+        <v>0.002845760908430806</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9978386619300493</v>
+        <v>0.9971542390915692</v>
       </c>
       <c r="F30" t="n">
-        <v>45.18725250074827</v>
+        <v>39.57221437833789</v>
       </c>
     </row>
     <row r="31">
@@ -1054,19 +1054,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>97043.50954250482</v>
+        <v>96321.8981984151</v>
       </c>
       <c r="C31" t="n">
-        <v>223.7311752572228</v>
+        <v>293.9155939364999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002305472836998224</v>
+        <v>0.003051389138231664</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9976945271630018</v>
+        <v>0.9969486108617683</v>
       </c>
       <c r="F31" t="n">
-        <v>44.28404596421716</v>
+        <v>38.68372188231741</v>
       </c>
     </row>
     <row r="32">
@@ -1074,19 +1074,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96819.77836724759</v>
+        <v>96027.9826044786</v>
       </c>
       <c r="C32" t="n">
-        <v>238.1450896860658</v>
+        <v>314.2412205078043</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002459673980896304</v>
+        <v>0.003272392192201989</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9975403260191037</v>
+        <v>0.996727607807798</v>
       </c>
       <c r="F32" t="n">
-        <v>43.38522215183383</v>
+        <v>37.80059189240575</v>
       </c>
     </row>
     <row r="33">
@@ -1094,19 +1094,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>96581.63327756153</v>
+        <v>95713.7413839708</v>
       </c>
       <c r="C33" t="n">
-        <v>253.4922894734195</v>
+        <v>335.947176444464</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002624642811174249</v>
+        <v>0.003509915834308042</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9973753571888258</v>
+        <v>0.996490084165692</v>
       </c>
       <c r="F33" t="n">
-        <v>42.49096591210142</v>
+        <v>36.92305480475717</v>
       </c>
     </row>
     <row r="34">
@@ -1114,19 +1114,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>96328.14098808811</v>
+        <v>95377.79420752634</v>
       </c>
       <c r="C34" t="n">
-        <v>269.8275729766773</v>
+        <v>359.1155761295339</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002801129246437384</v>
+        <v>0.003765190620241832</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9971988707535626</v>
+        <v>0.9962348093797582</v>
       </c>
       <c r="F34" t="n">
-        <v>41.60146722539445</v>
+        <v>36.05134695620404</v>
       </c>
     </row>
     <row r="35">
@@ -1134,19 +1134,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>96058.31341511144</v>
+        <v>95018.6786313968</v>
       </c>
       <c r="C35" t="n">
-        <v>287.2081274684362</v>
+        <v>383.831570643729</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00298993514728163</v>
+        <v>0.004039538080009675</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9970100648527184</v>
+        <v>0.9959604619199903</v>
       </c>
       <c r="F35" t="n">
-        <v>40.7169211486721</v>
+        <v>35.18571045849905</v>
       </c>
     </row>
     <row r="36">
@@ -1154,19 +1154,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>95771.105287643</v>
+        <v>94634.84706075308</v>
       </c>
       <c r="C36" t="n">
-        <v>305.6935026325128</v>
+        <v>410.183136378647</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003191917872456207</v>
+        <v>0.004334377336873807</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9968080821275438</v>
+        <v>0.9956656226631262</v>
       </c>
       <c r="F36" t="n">
-        <v>39.83752774061823</v>
+        <v>34.32639299920874</v>
       </c>
     </row>
     <row r="37">
@@ -1174,19 +1174,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>95465.4117850105</v>
+        <v>94224.66392437443</v>
       </c>
       <c r="C37" t="n">
-        <v>325.3455574876707</v>
+        <v>438.2607900462339</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003407994072453735</v>
+        <v>0.004651232191159482</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9965920059275463</v>
+        <v>0.9953487678088405</v>
       </c>
       <c r="F37" t="n">
-        <v>38.96349196593381</v>
+        <v>33.47364760744941</v>
       </c>
     </row>
     <row r="38">
@@ -1194,19 +1194,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>95140.06622752282</v>
+        <v>93786.4031343282</v>
       </c>
       <c r="C38" t="n">
-        <v>346.2283760065334</v>
+        <v>468.1572179593772</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003639143735495676</v>
+        <v>0.004991738698933212</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9963608562645043</v>
+        <v>0.9950082613010668</v>
       </c>
       <c r="F38" t="n">
-        <v>38.09502357751219</v>
+        <v>32.62773238272807</v>
       </c>
     </row>
     <row r="39">
@@ -1214,19 +1214,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>94793.83785151629</v>
+        <v>93318.24591636882</v>
       </c>
       <c r="C39" t="n">
-        <v>368.4081460968807</v>
+        <v>499.9668060438583</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003886414501688917</v>
+        <v>0.005357653277065721</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9961135854983111</v>
+        <v>0.9946423467229343</v>
       </c>
       <c r="F39" t="n">
-        <v>37.23233697524125</v>
+        <v>31.78891018524613</v>
       </c>
     </row>
     <row r="40">
@@ -1234,19 +1234,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>94425.42970541942</v>
+        <v>92818.27911032496</v>
       </c>
       <c r="C40" t="n">
-        <v>391.952995961472</v>
+        <v>533.7850555516319</v>
       </c>
       <c r="D40" t="n">
-        <v>0.004150926261964116</v>
+        <v>0.005750861367696425</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9958490737380359</v>
+        <v>0.9942491386323036</v>
       </c>
       <c r="F40" t="n">
-        <v>36.37565104020311</v>
+        <v>30.95744828614452</v>
       </c>
     </row>
     <row r="41">
@@ -1254,19 +1254,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>94033.47670945794</v>
+        <v>92284.49405477333</v>
       </c>
       <c r="C41" t="n">
-        <v>416.9327811511048</v>
+        <v>569.7078679013216</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0044338760592606</v>
+        <v>0.00617338669661216</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9955661239407394</v>
+        <v>0.9938266133033878</v>
       </c>
       <c r="F41" t="n">
-        <v>35.52518894307917</v>
+        <v>30.1336179763173</v>
       </c>
     </row>
     <row r="42">
@@ -1274,19 +1274,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>93616.54392830684</v>
+        <v>91714.78618687201</v>
       </c>
       <c r="C42" t="n">
-        <v>443.4188148763046</v>
+        <v>607.8306805015958</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004736543310292274</v>
+        <v>0.006627401161499957</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9952634566897077</v>
+        <v>0.9933725988385</v>
       </c>
       <c r="F42" t="n">
-        <v>34.68117792562016</v>
+        <v>29.31769413259914</v>
       </c>
     </row>
     <row r="43">
@@ -1294,19 +1294,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>93173.12511343053</v>
+        <v>91106.95550637042</v>
       </c>
       <c r="C43" t="n">
-        <v>471.4835333505548</v>
+        <v>648.2474338598136</v>
       </c>
       <c r="D43" t="n">
-        <v>0.005060295367108947</v>
+        <v>0.007115235387428642</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9949397046328911</v>
+        <v>0.9928847646125714</v>
       </c>
       <c r="F43" t="n">
-        <v>33.84384905410708</v>
+        <v>28.50995474034032</v>
       </c>
     </row>
     <row r="44">
@@ -1314,19 +1314,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>92701.64158007997</v>
+        <v>90458.70807251061</v>
       </c>
       <c r="C44" t="n">
-        <v>501.2000871101878</v>
+        <v>691.049348795891</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00540659343855554</v>
+        <v>0.007639389988213785</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9945934065614445</v>
+        <v>0.9923606100117862</v>
       </c>
       <c r="F44" t="n">
-        <v>33.01343694380974</v>
+        <v>27.71068037162394</v>
       </c>
     </row>
     <row r="45">
@@ -1334,19 +1334,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>92200.44149296978</v>
+        <v>89767.65872371472</v>
       </c>
       <c r="C45" t="n">
-        <v>532.6418484030771</v>
+        <v>736.3234912419982</v>
       </c>
       <c r="D45" t="n">
-        <v>0.005776998892610408</v>
+        <v>0.008202547573489039</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9942230011073896</v>
+        <v>0.991797452426511</v>
       </c>
       <c r="F45" t="n">
-        <v>32.1901794535485</v>
+        <v>26.92015361865357</v>
       </c>
     </row>
     <row r="46">
@@ -1354,19 +1354,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>91667.79964456671</v>
+        <v>89031.33523247272</v>
       </c>
       <c r="C46" t="n">
-        <v>565.8818238768519</v>
+        <v>784.1511010063172</v>
       </c>
       <c r="D46" t="n">
-        <v>0.006173179961458719</v>
+        <v>0.008807585542312646</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9938268200385413</v>
+        <v>0.9911924144576874</v>
       </c>
       <c r="F46" t="n">
-        <v>31.37431734957974</v>
+        <v>26.13865848214731</v>
       </c>
     </row>
     <row r="47">
@@ -1374,19 +1374,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>91101.91782068985</v>
+        <v>88247.18413146641</v>
       </c>
       <c r="C47" t="n">
-        <v>600.9919609467911</v>
+        <v>834.6056601295493</v>
       </c>
       <c r="D47" t="n">
-        <v>0.006596918872000979</v>
+        <v>0.009457589704915614</v>
       </c>
       <c r="E47" t="n">
-        <v>0.993403081127999</v>
+        <v>0.9905424102950844</v>
       </c>
       <c r="F47" t="n">
-        <v>30.56609393815958</v>
+        <v>25.36647971491491</v>
       </c>
     </row>
     <row r="48">
@@ -1394,19 +1394,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>90500.92585974306</v>
+        <v>87412.57847133686</v>
       </c>
       <c r="C48" t="n">
-        <v>638.0423354123928</v>
+        <v>887.7506762133822</v>
       </c>
       <c r="D48" t="n">
-        <v>0.007050119425310863</v>
+        <v>0.01015586877470365</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9929498805746891</v>
+        <v>0.9898441312252964</v>
       </c>
       <c r="F48" t="n">
-        <v>29.765754666293</v>
+        <v>24.6039021211693</v>
       </c>
     </row>
     <row r="49">
@@ -1414,19 +1414,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>89862.88352433067</v>
+        <v>86524.82779512348</v>
       </c>
       <c r="C49" t="n">
-        <v>677.1002071538452</v>
+        <v>943.6371565280082</v>
       </c>
       <c r="D49" t="n">
-        <v>0.007534815049313637</v>
+        <v>0.01090596977277303</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9924651849506864</v>
+        <v>0.989094030227227</v>
       </c>
       <c r="F49" t="n">
-        <v>28.97354669034742</v>
+        <v>23.85120981253064</v>
       </c>
     </row>
     <row r="50">
@@ -1434,19 +1434,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>89185.78331717683</v>
+        <v>85581.19063859546</v>
       </c>
       <c r="C50" t="n">
-        <v>718.2289301203692</v>
+        <v>1002.300750028557</v>
       </c>
       <c r="D50" t="n">
-        <v>0.008053177349646501</v>
+        <v>0.01171169438692687</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9919468226503535</v>
+        <v>0.9882883056130731</v>
       </c>
       <c r="F50" t="n">
-        <v>28.18971841240176</v>
+        <v>23.10868542211917</v>
       </c>
     </row>
     <row r="51">
@@ -1454,19 +1454,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>88467.55438705646</v>
+        <v>84578.8898885669</v>
       </c>
       <c r="C51" t="n">
-        <v>761.4867023762833</v>
+        <v>1063.758536883758</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00860752518425778</v>
+        <v>0.01257711632637015</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9913924748157422</v>
+        <v>0.9874228836736298</v>
       </c>
       <c r="F51" t="n">
-        <v>27.41451898441331</v>
+        <v>22.37660927859927</v>
       </c>
     </row>
     <row r="52">
@@ -1474,19 +1474,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>87706.06768468018</v>
+        <v>83515.13135168314</v>
       </c>
       <c r="C52" t="n">
-        <v>806.9251417656774</v>
+        <v>1128.005449047429</v>
       </c>
       <c r="D52" t="n">
-        <v>0.009200334287779555</v>
+        <v>0.01350659971182211</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9907996657122204</v>
+        <v>0.9864934002881779</v>
       </c>
       <c r="F52" t="n">
-        <v>26.64819778051632</v>
+        <v>21.65525854252947</v>
       </c>
     </row>
     <row r="53">
@@ -1494,19 +1494,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>86899.1425429145</v>
+        <v>82387.12590263571</v>
       </c>
       <c r="C53" t="n">
-        <v>854.5876728754076</v>
+        <v>1195.010311133158</v>
       </c>
       <c r="D53" t="n">
-        <v>0.009834247472043534</v>
+        <v>0.01450481853858343</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9901657525279565</v>
+        <v>0.9854951814614166</v>
       </c>
       <c r="F53" t="n">
-        <v>25.89100383801614</v>
+        <v>20.94490630788763</v>
       </c>
     </row>
     <row r="54">
@@ -1514,19 +1514,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>86044.55487003909</v>
+        <v>81192.11559150256</v>
       </c>
       <c r="C54" t="n">
-        <v>904.5077115157237</v>
+        <v>1264.711498778952</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01051208542925097</v>
+        <v>0.01557677724696849</v>
       </c>
       <c r="E54" t="n">
-        <v>0.989487914570749</v>
+        <v>0.9844232227530315</v>
       </c>
       <c r="F54" t="n">
-        <v>25.14318526791225</v>
+        <v>20.24582067217147</v>
       </c>
     </row>
     <row r="55">
@@ -1534,19 +1534,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>85140.04715852338</v>
+        <v>79927.40409272361</v>
       </c>
       <c r="C55" t="n">
-        <v>956.706634017176</v>
+        <v>1337.012222253824</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01123685816424169</v>
+        <v>0.01672783243032339</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9887631418357583</v>
+        <v>0.9832721675696766</v>
       </c>
       <c r="F55" t="n">
-        <v>24.40498863606915</v>
+        <v>19.55826377901818</v>
       </c>
     </row>
     <row r="56">
@@ -1554,19 +1554,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>84183.3405245062</v>
+        <v>78590.39187046979</v>
       </c>
       <c r="C56" t="n">
-        <v>1011.191520394986</v>
+        <v>1411.775456734167</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01201177708195866</v>
+        <v>0.0179637157053627</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9879882229180413</v>
+        <v>0.9820362842946373</v>
       </c>
       <c r="F56" t="n">
-        <v>23.67665831645649</v>
+        <v>18.88249083783577</v>
       </c>
     </row>
     <row r="57">
@@ -1574,19 +1574,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83172.14900411121</v>
+        <v>77178.61641373562</v>
       </c>
       <c r="C57" t="n">
-        <v>1067.952663016599</v>
+        <v>1488.818557964678</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0128402677555417</v>
+        <v>0.0192905577625736</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9871597322444583</v>
+        <v>0.9807094422374264</v>
       </c>
       <c r="F57" t="n">
-        <v>22.9584358181961</v>
+        <v>18.21874912548601</v>
       </c>
     </row>
     <row r="58">
@@ -1594,19 +1594,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>82104.19634109462</v>
+        <v>75689.79785577094</v>
       </c>
       <c r="C58" t="n">
-        <v>1126.960836001979</v>
+        <v>1567.90762341504</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01372598339943698</v>
+        <v>0.02071491360569799</v>
       </c>
       <c r="E58" t="n">
-        <v>0.986274016600563</v>
+        <v>0.979285086394302</v>
       </c>
       <c r="F58" t="n">
-        <v>22.25055908848046</v>
+        <v>17.56727697559617</v>
       </c>
     </row>
     <row r="59">
@@ -1614,19 +1614,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>80977.23550509264</v>
+        <v>74121.8902323559</v>
       </c>
       <c r="C59" t="n">
-        <v>1188.164325387348</v>
+        <v>1648.751685016245</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01467281907039941</v>
+        <v>0.02224378897850243</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9853271809296006</v>
+        <v>0.9777562110214976</v>
       </c>
       <c r="F59" t="n">
-        <v>21.55326179376512</v>
+        <v>16.92830276159659</v>
       </c>
     </row>
     <row r="60">
@@ -1634,19 +1634,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>79789.07117970529</v>
+        <v>72473.13854733965</v>
       </c>
       <c r="C60" t="n">
-        <v>1251.485726310962</v>
+        <v>1730.996850502635</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01568492661723431</v>
+        <v>0.02388466796386834</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9843150733827657</v>
+        <v>0.9761153320361317</v>
       </c>
       <c r="F60" t="n">
-        <v>20.86677258197887</v>
+        <v>16.30204388007245</v>
       </c>
     </row>
     <row r="61">
@@ -1654,19 +1654,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>78537.58545339433</v>
+        <v>70742.14169683702</v>
       </c>
       <c r="C61" t="n">
-        <v>1316.81852136393</v>
+        <v>1814.220546552639</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01676673039745225</v>
+        <v>0.02564554172430089</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9832332696025478</v>
+        <v>0.9743544582756991</v>
       </c>
       <c r="F61" t="n">
-        <v>20.19131432884086</v>
+        <v>15.68870574147229</v>
       </c>
     </row>
     <row r="62">
@@ -1674,19 +1674,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>77220.7669320304</v>
+        <v>68927.92115028438</v>
       </c>
       <c r="C62" t="n">
-        <v>1384.023464032941</v>
+        <v>1897.926058352906</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01792294377561876</v>
+        <v>0.02753493833384058</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9820770562243812</v>
+        <v>0.9724650616661594</v>
       </c>
       <c r="F62" t="n">
-        <v>19.52710337171634</v>
+        <v>15.08848077562196</v>
       </c>
     </row>
     <row r="63">
@@ -1694,19 +1694,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>75836.74346799745</v>
+        <v>67029.99509193147</v>
       </c>
       <c r="C63" t="n">
-        <v>1452.924803082551</v>
+        <v>1981.537606632735</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01915858641392842</v>
+        <v>0.02956195362859659</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9808414135860716</v>
+        <v>0.9704380463714034</v>
       </c>
       <c r="F63" t="n">
-        <v>18.87434873477902</v>
+        <v>14.50154745984086</v>
       </c>
     </row>
     <row r="64">
@@ -1714,19 +1714,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>74383.8186649149</v>
+        <v>65048.45748529874</v>
       </c>
       <c r="C64" t="n">
-        <v>1523.306398007207</v>
+        <v>2064.396253917507</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02047900236030387</v>
+        <v>0.03173628297618081</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9795209976396961</v>
+        <v>0.9682637170238192</v>
       </c>
       <c r="F64" t="n">
-        <v>18.23325134957367</v>
+        <v>13.92806937773566</v>
       </c>
     </row>
     <row r="65">
@@ -1734,19 +1734,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>72860.5122669077</v>
+        <v>62984.06123138123</v>
       </c>
       <c r="C65" t="n">
-        <v>1594.907792515265</v>
+        <v>2145.756985439502</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02188987893294914</v>
+        <v>0.03406825383261247</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9781101210670509</v>
+        <v>0.9659317461673875</v>
       </c>
       <c r="F65" t="n">
-        <v>17.60400327538114</v>
+        <v>13.36819431694695</v>
       </c>
     </row>
     <row r="66">
@@ -1754,19 +1754,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>71265.60447439243</v>
+        <v>60838.30424594173</v>
       </c>
       <c r="C66" t="n">
-        <v>1667.420332517737</v>
+        <v>2224.7873647892</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02339726639260997</v>
+        <v>0.03656885891814787</v>
       </c>
       <c r="E66" t="n">
-        <v>0.97660273360739</v>
+        <v>0.9634311410818521</v>
       </c>
       <c r="F66" t="n">
-        <v>16.98678692407543</v>
+        <v>12.82205341423472</v>
       </c>
     </row>
     <row r="67">
@@ -1774,19 +1774,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>69598.18414187469</v>
+        <v>58613.51688115253</v>
       </c>
       <c r="C67" t="n">
-        <v>1740.48343731896</v>
+        <v>2300.568217038743</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02500759838462185</v>
+        <v>0.03924978980025173</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9749924016153781</v>
+        <v>0.9607502101997483</v>
       </c>
       <c r="F67" t="n">
-        <v>16.38177429442193</v>
+        <v>12.28976035630122</v>
       </c>
     </row>
     <row r="68">
@@ -1794,19 +1794,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>67857.70070455573</v>
+        <v>56312.94866411378</v>
       </c>
       <c r="C68" t="n">
-        <v>1813.68115754562</v>
+        <v>2372.096838679116</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02672771312193689</v>
+        <v>0.04212347062178912</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9732722868780631</v>
+        <v>0.9578765293782109</v>
       </c>
       <c r="F68" t="n">
-        <v>15.78912622099292</v>
+        <v>11.77141064465656</v>
       </c>
     </row>
     <row r="69">
@@ -1814,19 +1814,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>66044.0195470101</v>
+        <v>53940.85182543467</v>
       </c>
       <c r="C69" t="n">
-        <v>1886.539180523756</v>
+        <v>2438.293268995448</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02856487526748608</v>
+        <v>0.04520309165465797</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9714351247325139</v>
+        <v>0.954796908345342</v>
       </c>
       <c r="F69" t="n">
-        <v>15.20899164306364</v>
+        <v>11.26708093262625</v>
       </c>
     </row>
     <row r="70">
@@ -1834,19 +1834,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>64157.48036648634</v>
+        <v>51502.55855643922</v>
       </c>
       <c r="C70" t="n">
-        <v>1958.522472796522</v>
+        <v>2498.010174816019</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03052679845917994</v>
+        <v>0.04850264229258761</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9694732015408201</v>
+        <v>0.9514973577074124</v>
       </c>
       <c r="F70" t="n">
-        <v>14.64150689899521</v>
+        <v>10.77682844227633</v>
       </c>
     </row>
     <row r="71">
@@ -1854,19 +1854,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>62198.95789368982</v>
+        <v>49004.54838162321</v>
       </c>
       <c r="C71" t="n">
-        <v>2029.033779438385</v>
+        <v>2550.046891893148</v>
       </c>
       <c r="D71" t="n">
-        <v>0.03262166840329384</v>
+        <v>0.05203694302077111</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9673783315967062</v>
+        <v>0.9479630569792289</v>
       </c>
       <c r="F71" t="n">
-        <v>14.08679505170394</v>
+        <v>10.30069046858717</v>
       </c>
     </row>
     <row r="72">
@@ -1874,19 +1874,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>60169.92411425144</v>
+        <v>46454.50148973006</v>
       </c>
       <c r="C72" t="n">
-        <v>2097.413229552878</v>
+        <v>2593.16812223235</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03485816644159767</v>
+        <v>0.05582167581338993</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9651418335584023</v>
+        <v>0.9441783241866101</v>
       </c>
       <c r="F72" t="n">
-        <v>13.54496525085306</v>
+        <v>9.838683977641459</v>
       </c>
     </row>
     <row r="73">
@@ -1894,19 +1894,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>58072.51088469856</v>
+        <v>43861.3333674977</v>
       </c>
       <c r="C73" t="n">
-        <v>2162.939325176322</v>
+        <v>2626.127697262551</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03724549347402561</v>
+        <v>0.05987341231191512</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9627545065259744</v>
+        <v>0.9401265876880849</v>
       </c>
       <c r="F73" t="n">
-        <v>13.01611213738119</v>
+        <v>9.390805304905237</v>
       </c>
     </row>
     <row r="74">
@@ -1914,19 +1914,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>55909.57155952224</v>
+        <v>41235.20567023515</v>
       </c>
       <c r="C74" t="n">
-        <v>2224.831614558189</v>
+        <v>2647.697671263339</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03979339409155724</v>
+        <v>0.06420963902635579</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9602066059084428</v>
+        <v>0.9357903609736442</v>
       </c>
       <c r="F74" t="n">
-        <v>12.50031529589471</v>
+        <v>8.957029958879355</v>
       </c>
     </row>
     <row r="75">
@@ -1934,19 +1934,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>53684.73994496404</v>
+        <v>38587.50799897181</v>
       </c>
       <c r="C75" t="n">
-        <v>2282.255367674975</v>
+        <v>2656.702797932547</v>
       </c>
       <c r="D75" t="n">
-        <v>0.04251218074288288</v>
+        <v>0.06884877867737238</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9574878192571171</v>
+        <v>0.9311512213226276</v>
       </c>
       <c r="F75" t="n">
-        <v>11.99763876029714</v>
+        <v>8.537312534487135</v>
       </c>
     </row>
     <row r="76">
@@ -1954,19 +1954,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>51402.48457728907</v>
+        <v>35930.80520103926</v>
       </c>
       <c r="C76" t="n">
-        <v>2334.328578464405</v>
+        <v>2652.060157296962</v>
       </c>
       <c r="D76" t="n">
-        <v>0.04541275772291697</v>
+        <v>0.0738102066585542</v>
       </c>
       <c r="E76" t="n">
-        <v>0.954587242277083</v>
+        <v>0.9261897933414458</v>
       </c>
       <c r="F76" t="n">
-        <v>11.50813057780491</v>
+        <v>8.131586739553173</v>
       </c>
     </row>
     <row r="77">
@@ -1974,19 +1974,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>49068.15599882467</v>
+        <v>33278.7450437423</v>
       </c>
       <c r="C77" t="n">
-        <v>2380.131610631949</v>
+        <v>2632.823335931791</v>
       </c>
       <c r="D77" t="n">
-        <v>0.04850664473083033</v>
+        <v>0.07911426144438893</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9514933552691697</v>
+        <v>0.9208857385556111</v>
       </c>
       <c r="F77" t="n">
-        <v>11.03182243620395</v>
+        <v>7.739765536629855</v>
       </c>
     </row>
     <row r="78">
@@ -1994,19 +1994,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>46688.02438819272</v>
+        <v>30645.92170781051</v>
       </c>
       <c r="C78" t="n">
-        <v>2418.719777425104</v>
+        <v>2598.230122163598</v>
       </c>
       <c r="D78" t="n">
-        <v>0.05180599969950306</v>
+        <v>0.08478224760005848</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9481940003004969</v>
+        <v>0.9152177523999415</v>
       </c>
       <c r="F78" t="n">
-        <v>10.56872935883465</v>
+        <v>7.361741401257085</v>
       </c>
     </row>
     <row r="79">
@@ -2014,19 +2014,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>44269.30461076761</v>
+        <v>28047.69158564692</v>
       </c>
       <c r="C79" t="n">
-        <v>2449.13909553661</v>
+        <v>2547.75216956537</v>
       </c>
       <c r="D79" t="n">
-        <v>0.05532364054665784</v>
+        <v>0.09083642986395191</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9446763594533422</v>
+        <v>0.9091635701360481</v>
       </c>
       <c r="F79" t="n">
-        <v>10.11884947135683</v>
+        <v>6.997386696514349</v>
       </c>
     </row>
     <row r="80">
@@ -2034,19 +2034,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>41820.165515231</v>
+        <v>25499.93941608155</v>
       </c>
       <c r="C80" t="n">
-        <v>2470.445374187933</v>
+        <v>2481.144527793682</v>
       </c>
       <c r="D80" t="n">
-        <v>0.05907306543988189</v>
+        <v>0.0973000165729393</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9409269345601181</v>
+        <v>0.9026999834270607</v>
       </c>
       <c r="F80" t="n">
-        <v>9.68216384384065</v>
+        <v>6.646554162461738</v>
       </c>
     </row>
     <row r="81">
@@ -2054,19 +2054,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>39349.72014104307</v>
+        <v>23018.79488828786</v>
       </c>
       <c r="C81" t="n">
-        <v>2481.726687618262</v>
+        <v>2398.492374577971</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06306847110279035</v>
+        <v>0.1041971304848084</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9369315288972097</v>
+        <v>0.8958028695151916</v>
       </c>
       <c r="F81" t="n">
-        <v>9.258636411161191</v>
+        <v>6.309077517789042</v>
       </c>
     </row>
     <row r="82">
@@ -2074,19 +2074,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>36867.99345342481</v>
+        <v>20620.30251370989</v>
       </c>
       <c r="C82" t="n">
-        <v>2482.129128633119</v>
+        <v>2300.251756899409</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06732476861722303</v>
+        <v>0.111552764823408</v>
       </c>
       <c r="E82" t="n">
-        <v>0.932675231382777</v>
+        <v>0.888447235176592</v>
       </c>
       <c r="F82" t="n">
-        <v>8.848213974046013</v>
+        <v>5.984772169721794</v>
       </c>
     </row>
     <row r="83">
@@ -2094,19 +2094,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>34385.86432479169</v>
+        <v>18320.05075681048</v>
       </c>
       <c r="C83" t="n">
-        <v>2470.885550067378</v>
+        <v>2187.280729461302</v>
       </c>
       <c r="D83" t="n">
-        <v>0.07185759609613496</v>
+        <v>0.1193927221325072</v>
       </c>
       <c r="E83" t="n">
-        <v>0.928142403903865</v>
+        <v>0.8806072778674928</v>
       </c>
       <c r="F83" t="n">
-        <v>8.450826282444552</v>
+        <v>5.673436026993337</v>
       </c>
     </row>
     <row r="84">
@@ -2114,19 +2114,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>31914.97877472431</v>
+        <v>16132.77002734918</v>
       </c>
       <c r="C84" t="n">
-        <v>2447.346769964409</v>
+        <v>2060.857044853963</v>
       </c>
       <c r="D84" t="n">
-        <v>0.07668332751336915</v>
+        <v>0.1277435332779356</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9233166724866309</v>
+        <v>0.8722564667220644</v>
       </c>
       <c r="F84" t="n">
-        <v>8.066386202163097</v>
+        <v>5.374850409505469</v>
       </c>
     </row>
     <row r="85">
@@ -2134,19 +2134,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29467.6320047599</v>
+        <v>14071.91298249522</v>
       </c>
       <c r="C85" t="n">
-        <v>2411.014448453616</v>
+        <v>1922.678591712388</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08181907687947798</v>
+        <v>0.1366323536895167</v>
       </c>
       <c r="E85" t="n">
-        <v>0.918180923120522</v>
+        <v>0.8633676463104833</v>
       </c>
       <c r="F85" t="n">
-        <v>7.694789964948515</v>
+        <v>5.088781047190322</v>
       </c>
     </row>
     <row r="86">
@@ -2154,19 +2154,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27056.61755630629</v>
+        <v>12149.23439078283</v>
       </c>
       <c r="C86" t="n">
-        <v>2361.574547873419</v>
+        <v>1774.843183928566</v>
       </c>
       <c r="D86" t="n">
-        <v>0.08728269684704137</v>
+        <v>0.1460868336917652</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9127173031529586</v>
+        <v>0.8539131663082348</v>
       </c>
       <c r="F86" t="n">
-        <v>7.335917501418305</v>
+        <v>4.81497915957359</v>
       </c>
     </row>
     <row r="87">
@@ -2174,19 +2174,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>24695.04300843287</v>
+        <v>10374.39120685426</v>
       </c>
       <c r="C87" t="n">
-        <v>2298.929976570143</v>
+        <v>1619.805151383193</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09309277071455613</v>
+        <v>0.1561349595447107</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9069072292854439</v>
+        <v>0.8438650404552893</v>
       </c>
       <c r="F87" t="n">
-        <v>6.989632855434868</v>
+        <v>4.553182606644601</v>
       </c>
     </row>
     <row r="88">
@@ -2194,19 +2194,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22396.11303186272</v>
+        <v>8754.586055471073</v>
       </c>
       <c r="C88" t="n">
-        <v>2223.230711652836</v>
+        <v>1460.307515484275</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09926859667522969</v>
+        <v>0.1668048616155499</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9007314033247703</v>
+        <v>0.8331951383844501</v>
       </c>
       <c r="F88" t="n">
-        <v>6.655784677720651</v>
+        <v>4.303117100878824</v>
       </c>
     </row>
     <row r="89">
@@ -2214,19 +2214,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20172.88232020989</v>
+        <v>7294.278539986798</v>
       </c>
       <c r="C89" t="n">
-        <v>2134.899424662352</v>
+        <v>1299.290344690341</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1058301630265069</v>
+        <v>0.1781245859433129</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8941698369734931</v>
+        <v>0.8218754140566871</v>
       </c>
       <c r="F89" t="n">
-        <v>6.3342067957201</v>
+        <v>4.064497469647984</v>
       </c>
     </row>
     <row r="90">
@@ -2234,19 +2234,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18037.98289554754</v>
+        <v>5994.988195296456</v>
       </c>
       <c r="C90" t="n">
-        <v>2034.650431481878</v>
+        <v>1139.778098708036</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1127981129189399</v>
+        <v>0.1901218253611046</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8872018870810601</v>
+        <v>0.8098781746388954</v>
       </c>
       <c r="F90" t="n">
-        <v>6.024718855947106</v>
+        <v>3.837028956802607</v>
       </c>
     </row>
     <row r="91">
@@ -2254,19 +2254,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16003.33246406566</v>
+        <v>4855.21009658842</v>
       </c>
       <c r="C91" t="n">
-        <v>1923.49969446613</v>
+        <v>984.7512212632259</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1201936970806057</v>
+        <v>0.2028236063265676</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8798063029193943</v>
+        <v>0.7971763936734324</v>
       </c>
       <c r="F91" t="n">
-        <v>5.727127034325541</v>
+        <v>3.620408551928818</v>
       </c>
     </row>
     <row r="92">
@@ -2274,19 +2274,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14079.83276959953</v>
+        <v>3870.458875325194</v>
       </c>
       <c r="C92" t="n">
-        <v>1802.763664369774</v>
+        <v>837.0096747404634</v>
       </c>
       <c r="D92" t="n">
-        <v>0.128038712807883</v>
+        <v>0.2162559277083491</v>
       </c>
       <c r="E92" t="n">
-        <v>0.871961287192117</v>
+        <v>0.7837440722916509</v>
       </c>
       <c r="F92" t="n">
-        <v>5.441224809348106</v>
+        <v>3.414326335668076</v>
       </c>
     </row>
     <row r="93">
@@ -2294,19 +2294,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12277.06910522975</v>
+        <v>3033.449200584731</v>
       </c>
       <c r="C93" t="n">
-        <v>1674.045004669849</v>
+        <v>699.0381898211847</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1363554273679818</v>
+        <v>0.2304433480166529</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8636445726320182</v>
+        <v>0.7695566519833471</v>
       </c>
       <c r="F93" t="n">
-        <v>5.166793792256307</v>
+        <v>3.218466829543793</v>
       </c>
     </row>
     <row r="94">
@@ -2314,19 +2314,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10603.02410055991</v>
+        <v>2334.411010763547</v>
       </c>
       <c r="C94" t="n">
-        <v>1539.203726505986</v>
+        <v>572.8843465232333</v>
       </c>
       <c r="D94" t="n">
-        <v>0.145166483817075</v>
+        <v>0.2454085179866644</v>
       </c>
       <c r="E94" t="n">
-        <v>0.854833516182925</v>
+        <v>0.7545914820133356</v>
       </c>
       <c r="F94" t="n">
-        <v>4.903604607893176</v>
+        <v>3.032510338956332</v>
       </c>
     </row>
     <row r="95">
@@ -2334,19 +2334,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9063.820374053919</v>
+        <v>1761.526664240313</v>
       </c>
       <c r="C95" t="n">
-        <v>1400.312999049603</v>
+        <v>460.0608361056541</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1544947871052407</v>
+        <v>0.2611716560669053</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8455052128947593</v>
+        <v>0.7388283439330947</v>
       </c>
       <c r="F95" t="n">
-        <v>4.651417819409474</v>
+        <v>2.856134278377099</v>
       </c>
     </row>
     <row r="96">
@@ -2354,19 +2354,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7663.507375004317</v>
+        <v>1301.465828134659</v>
       </c>
       <c r="C96" t="n">
-        <v>1259.599884549784</v>
+        <v>361.4820885739402</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1643633682219917</v>
+        <v>0.2777499652772586</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8356366317780083</v>
+        <v>0.7222500347227414</v>
       </c>
       <c r="F96" t="n">
-        <v>4.409984889621496</v>
+        <v>2.689014468278792</v>
       </c>
     </row>
     <row r="97">
@@ -2374,19 +2374,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6403.907490454533</v>
+        <v>939.983739560719</v>
       </c>
       <c r="C97" t="n">
-        <v>1119.372444536985</v>
+        <v>277.4427722837186</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1747952240418037</v>
+        <v>0.2951569911340971</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8252047759581963</v>
+        <v>0.7048430088659029</v>
       </c>
       <c r="F97" t="n">
-        <v>4.179049171530583</v>
+        <v>2.530826393963574</v>
       </c>
     </row>
     <row r="98">
@@ -2394,19 +2394,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5284.535045917548</v>
+        <v>662.5409672770004</v>
       </c>
       <c r="C98" t="n">
-        <v>981.9359999460876</v>
+        <v>207.641612512259</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1858131304672983</v>
+        <v>0.3134019219455249</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8141868695327017</v>
+        <v>0.6865980780544751</v>
       </c>
       <c r="F98" t="n">
-        <v>3.958346920324851</v>
+        <v>2.381246417171942</v>
       </c>
     </row>
     <row r="99">
@@ -2414,19 +2414,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4302.59904597146</v>
+        <v>454.8993547647414</v>
       </c>
       <c r="C99" t="n">
-        <v>849.5026878814019</v>
+        <v>151.2489564220377</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1974394264501115</v>
+        <v>0.3324888348110728</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8025605735498885</v>
+        <v>0.6675111651889272</v>
       </c>
       <c r="F99" t="n">
-        <v>3.747608319094793</v>
+        <v>2.239952932147129</v>
       </c>
     </row>
     <row r="100">
@@ -2434,19 +2434,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3453.096358090058</v>
+        <v>303.6503983427037</v>
       </c>
       <c r="C100" t="n">
-        <v>724.0996876412266</v>
+        <v>107.0112263423681</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2096957665096069</v>
+        <v>0.3524158931666999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7903042334903931</v>
+        <v>0.6475841068333001</v>
       </c>
       <c r="F100" t="n">
-        <v>3.546558510505894</v>
+        <v>2.106627458665304</v>
       </c>
     </row>
     <row r="101">
@@ -2454,19 +2454,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2728.996670448832</v>
+        <v>196.6391720003356</v>
       </c>
       <c r="C101" t="n">
-        <v>607.4824077827107</v>
+        <v>73.38072562353391</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2226028394834206</v>
+        <v>0.3731745047391101</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7773971605165794</v>
+        <v>0.6268254952608899</v>
       </c>
       <c r="F101" t="n">
-        <v>3.354918626780868</v>
+        <v>1.980955665391087</v>
       </c>
     </row>
     <row r="102">
@@ -2474,19 +2474,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2121.514262666121</v>
+        <v>123.2584463768017</v>
       </c>
       <c r="C102" t="n">
-        <v>501.0593477077775</v>
+        <v>48.65608094513433</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2361800514497098</v>
+        <v>0.3947484523404786</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7638199485502902</v>
+        <v>0.6052515476595214</v>
       </c>
       <c r="F102" t="n">
-        <v>3.172406810546849</v>
+        <v>1.862628317750064</v>
       </c>
     </row>
     <row r="103">
@@ -2494,19 +2494,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1620.454914958343</v>
+        <v>74.60236543166734</v>
       </c>
       <c r="C103" t="n">
-        <v>405.835108403661</v>
+        <v>31.11761750054707</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2504451710796864</v>
+        <v>0.4171130140511364</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7495548289203136</v>
+        <v>0.5828869859488636</v>
       </c>
       <c r="F103" t="n">
-        <v>2.998739219391961</v>
+        <v>1.75134214529361</v>
       </c>
     </row>
     <row r="104">
@@ -2514,19 +2514,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1214.619806554682</v>
+        <v>43.48474793112027</v>
       </c>
       <c r="C104" t="n">
-        <v>322.3770237636083</v>
+        <v>19.14346860729952</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2654139361336809</v>
+        <v>0.440234093977565</v>
       </c>
       <c r="E104" t="n">
-        <v>0.7345860638663191</v>
+        <v>0.559765906022435</v>
       </c>
       <c r="F104" t="n">
-        <v>2.833631007342368</v>
+        <v>1.646800624235226</v>
       </c>
     </row>
     <row r="105">
@@ -2534,19 +2534,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>892.242782791074</v>
+        <v>24.34127932382074</v>
       </c>
       <c r="C105" t="n">
-        <v>250.8091075737486</v>
+        <v>11.29599396184089</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2810996204297431</v>
+        <v>0.4640673898674859</v>
       </c>
       <c r="E105" t="n">
-        <v>0.7189003795702569</v>
+        <v>0.5359326101325141</v>
       </c>
       <c r="F105" t="n">
-        <v>2.676797276904296</v>
+        <v>1.548714671431352</v>
       </c>
     </row>
     <row r="106">
@@ -2554,19 +2554,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>641.4336752173253</v>
+        <v>13.04528536197985</v>
       </c>
       <c r="C106" t="n">
-        <v>190.8345756932468</v>
+        <v>6.373373689843154</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2975125614173434</v>
+        <v>0.4885576292886769</v>
       </c>
       <c r="E106" t="n">
-        <v>0.7024874385826566</v>
+        <v>0.5114423707113231</v>
       </c>
       <c r="F106" t="n">
-        <v>2.527953995803338</v>
+        <v>1.456803246535135</v>
       </c>
     </row>
     <row r="107">
@@ -2574,19 +2574,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>450.5990995240786</v>
+        <v>6.671911672136696</v>
       </c>
       <c r="C107" t="n">
-        <v>141.7853547246312</v>
+        <v>3.426946777922375</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3146596495074768</v>
+        <v>0.5136379116399313</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6853403504925232</v>
+        <v>0.4863620883600687</v>
       </c>
       <c r="F107" t="n">
-        <v>2.386818873081847</v>
+        <v>1.370793859344105</v>
       </c>
     </row>
     <row r="108">
@@ -2594,19 +2594,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>308.8137447994473</v>
+        <v>3.244964894214321</v>
       </c>
       <c r="C108" t="n">
-        <v>102.694090496799</v>
+        <v>1.749779819667622</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3325437815712885</v>
+        <v>0.5392291986848392</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6674562184287115</v>
+        <v>0.4607708013151608</v>
       </c>
       <c r="F108" t="n">
-        <v>2.253112189769471</v>
+        <v>1.290422979472508</v>
       </c>
     </row>
     <row r="109">
@@ -2614,19 +2614,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>206.1196543026483</v>
+        <v>1.495185074546699</v>
       </c>
       <c r="C109" t="n">
-        <v>72.38165440235987</v>
+        <v>0.8451384133459581</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3511632825469467</v>
+        <v>0.5652400012100054</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6488367174530533</v>
+        <v>0.4347599987899946</v>
       </c>
       <c r="F109" t="n">
-        <v>2.126557579906215</v>
+        <v>1.215436345394354</v>
       </c>
     </row>
     <row r="110">
@@ -2634,19 +2634,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>133.7379999002884</v>
+        <v>0.6500466612007407</v>
       </c>
       <c r="C110" t="n">
-        <v>49.55144032404993</v>
+        <v>0.3845457068610646</v>
       </c>
       <c r="D110" t="n">
-        <v>0.370511300909197</v>
+        <v>0.5915663133331795</v>
       </c>
       <c r="E110" t="n">
-        <v>0.629488699090803</v>
+        <v>0.4084336866668205</v>
       </c>
       <c r="F110" t="n">
-        <v>2.006882758255593</v>
+        <v>1.14558916962353</v>
       </c>
     </row>
     <row r="111">
@@ -2654,19 +2654,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>84.18655957623849</v>
+        <v>0.2655009543396761</v>
       </c>
       <c r="C111" t="n">
-        <v>32.88118115431447</v>
+        <v>0.1641039756042438</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3905751858708231</v>
+        <v>0.6180918483415045</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6094248141291769</v>
+        <v>0.3819081516584955</v>
       </c>
       <c r="F111" t="n">
-        <v>1.893820191580956</v>
+        <v>1.080646236337918</v>
       </c>
     </row>
     <row r="112">
@@ -2674,19 +2674,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>51.30537842192403</v>
+        <v>0.1013969787354323</v>
       </c>
       <c r="C112" t="n">
-        <v>21.10374178148575</v>
+        <v>0.06536947931166227</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4113358566022702</v>
+        <v>0.6446886300451422</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5886641433977298</v>
+        <v>0.3553113699548578</v>
       </c>
       <c r="F112" t="n">
-        <v>1.787107710854574</v>
+        <v>1.020381887153683</v>
       </c>
     </row>
     <row r="113">
@@ -2694,19 +2694,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>30.20163664043827</v>
+        <v>0.03602749942377004</v>
       </c>
       <c r="C113" t="n">
-        <v>13.07027701340797</v>
+        <v>0.02418230577424123</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4327671764618085</v>
+        <v>0.6712179907297799</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5672328235381915</v>
+        <v>0.3287820092702201</v>
       </c>
       <c r="F113" t="n">
-        <v>1.686489062210372</v>
+        <v>0.964579890082881</v>
       </c>
     </row>
     <row r="114">
@@ -2714,19 +2714,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>17.1313596270303</v>
+        <v>0.01184519364952881</v>
       </c>
       <c r="C114" t="n">
-        <v>7.791947920935902</v>
+        <v>0.008262401854711613</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4548353481904358</v>
+        <v>0.6975320200898771</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5451646518095642</v>
+        <v>0.3024679799101229</v>
       </c>
       <c r="F114" t="n">
-        <v>1.591714394822016</v>
+        <v>0.9130331860739102</v>
       </c>
     </row>
     <row r="115">
@@ -2734,19 +2734,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.339411706094401</v>
+        <v>0.003582791794817194</v>
       </c>
       <c r="C115" t="n">
-        <v>4.459553672007787</v>
+        <v>0.002592062078908941</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4774983491837843</v>
+        <v>0.7234754982576922</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5225016508162157</v>
+        <v>0.2765245017423078</v>
       </c>
       <c r="F115" t="n">
-        <v>1.502540684173653</v>
+        <v>0.8655435071065744</v>
       </c>
     </row>
     <row r="116">
@@ -2754,19 +2754,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.879858034086614</v>
+        <v>0.0009907297159082533</v>
       </c>
       <c r="C116" t="n">
-        <v>2.44337141147017</v>
+        <v>0.0007419459219956255</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5007054292159356</v>
+        <v>0.7488883295636743</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4992945707840644</v>
+        <v>0.2511116704363257</v>
       </c>
       <c r="F116" t="n">
-        <v>1.418732089377237</v>
+        <v>0.821920859827543</v>
       </c>
     </row>
     <row r="117">
@@ -2774,19 +2774,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.436486622616444</v>
+        <v>0.0002487837939126278</v>
       </c>
       <c r="C117" t="n">
-        <v>1.277685535301723</v>
+        <v>0.00019246125055752</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5243966962271553</v>
+        <v>0.7736084715594932</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4756033037728447</v>
+        <v>0.2263915284405068</v>
       </c>
       <c r="F117" t="n">
-        <v>1.340060243263834</v>
+        <v>0.7819828694866351</v>
       </c>
     </row>
     <row r="118">
@@ -2794,19 +2794,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.158801087314721</v>
+        <v>5.632254335510787e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6356056628492537</v>
+        <v>4.491583862725805e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5485028188247016</v>
+        <v>0.7974753260709178</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4514971811752984</v>
+        <v>0.2025246739290822</v>
       </c>
       <c r="F118" t="n">
-        <v>1.26630447391732</v>
+        <v>0.7455539808802392</v>
       </c>
     </row>
     <row r="119">
@@ -2814,19 +2814,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5231954244654673</v>
+        <v>1.140670472784982e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2997621379916046</v>
+        <v>9.357302310860072e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5729448767596972</v>
+        <v>0.8203335261246775</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4270551232403028</v>
+        <v>0.1796664738753225</v>
       </c>
       <c r="F119" t="n">
-        <v>1.197251956086509</v>
+        <v>0.7124645166258825</v>
       </c>
     </row>
     <row r="120">
@@ -2834,19 +2834,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2234332864738627</v>
+        <v>2.049402416989748e-06</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1335314164392539</v>
+        <v>1.725672695183973e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5976343925589369</v>
+        <v>0.8420370157066159</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4023656074410631</v>
+        <v>0.1579629842933841</v>
       </c>
       <c r="F120" t="n">
-        <v>1.132697790383766</v>
+        <v>0.6825495989492163</v>
       </c>
     </row>
     <row r="121">
@@ -2854,19 +2854,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.08990187003460882</v>
+        <v>3.237297218057748e-07</v>
       </c>
       <c r="C121" t="n">
-        <v>0.05596153874382179</v>
+        <v>2.792017605610935e-07</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6224735783836166</v>
+        <v>0.8624532804825491</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3775264216163834</v>
+        <v>0.1375467195174509</v>
       </c>
       <c r="F121" t="n">
-        <v>1.072445006936736</v>
+        <v>0.6556479498397395</v>
       </c>
     </row>
     <row r="122">
@@ -2874,19 +2874,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.03394033129078704</v>
+        <v>4.452796124468132e-08</v>
       </c>
       <c r="C122" t="n">
-        <v>0.02197147139053067</v>
+        <v>3.924995289504024e-08</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6473558316885001</v>
+        <v>0.8814675497798249</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3526441683114999</v>
+        <v>0.1185324502201751</v>
       </c>
       <c r="F122" t="n">
-        <v>1.016304486678857</v>
+        <v>0.6316005964067504</v>
       </c>
     </row>
     <row r="123">
@@ -2894,19 +2894,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01196885990025637</v>
+        <v>5.278008349641075e-09</v>
       </c>
       <c r="C123" t="n">
-        <v>0.008045066799387993</v>
+        <v>4.74485961021082e-09</v>
       </c>
       <c r="D123" t="n">
-        <v>0.672166510965315</v>
+        <v>0.8989867571038398</v>
       </c>
       <c r="E123" t="n">
-        <v>0.327833489034685</v>
+        <v>0.1010132428961602</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9640947818617868</v>
+        <v>0.6102495237574267</v>
       </c>
     </row>
     <row r="124">
@@ -2914,19 +2914,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.003923793100868378</v>
+        <v>5.331487394302556e-10</v>
       </c>
       <c r="C124" t="n">
-        <v>0.00273403632405266</v>
+        <v>4.878007192503324e-10</v>
       </c>
       <c r="D124" t="n">
-        <v>0.696784018364166</v>
+        <v>0.9149430227887552</v>
       </c>
       <c r="E124" t="n">
-        <v>0.303215981635834</v>
+        <v>0.08505697721124483</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9156417735977097</v>
+        <v>0.5914363364292858</v>
       </c>
     </row>
     <row r="125">
@@ -2934,19 +2934,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.001189756776815718</v>
+        <v>4.534802017992316e-11</v>
       </c>
       <c r="C125" t="n">
-        <v>0.000857911254935346</v>
+        <v>4.214175248850279e-11</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7210812089101706</v>
+        <v>0.929296412970199</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2789187910898294</v>
+        <v>0.07070358702980095</v>
       </c>
       <c r="F125" t="n">
-        <v>0.870777923232623</v>
+        <v>0.5750010102310288</v>
       </c>
     </row>
     <row r="126">
@@ -2954,19 +2954,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0003318455218803721</v>
+        <v>3.206267691420367e-12</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0002472007342250149</v>
+        <v>3.020421959295569e-12</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7449271360489503</v>
+        <v>0.9420367386596877</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2550728639510497</v>
+        <v>0.05796326134031227</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8293400626894629</v>
+        <v>0.5607808370375398</v>
       </c>
     </row>
     <row r="127">
@@ -2974,19 +2974,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8.464478765535722e-05</v>
+        <v>1.858457321247984e-13</v>
       </c>
       <c r="C127" t="n">
-        <v>6.502320580192157e-05</v>
+        <v>1.771452138472278e-13</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7681891301644279</v>
+        <v>0.9531841911132612</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2318108698355721</v>
+        <v>0.04681580888673875</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7911607200704253</v>
+        <v>0.5486096819274019</v>
       </c>
     </row>
     <row r="128">
@@ -2994,19 +2994,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.962158185343565e-05</v>
+        <v>8.700518277570608e-15</v>
       </c>
       <c r="C128" t="n">
-        <v>1.551547526482338e-05</v>
+        <v>8.376760394036744e-15</v>
       </c>
       <c r="D128" t="n">
-        <v>0.790735190501814</v>
+        <v>0.962788666927062</v>
       </c>
       <c r="E128" t="n">
-        <v>0.209264809498186</v>
+        <v>0.037211333072938</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7560270373729719</v>
+        <v>0.5383176769412017</v>
       </c>
     </row>
     <row r="129">
@@ -3014,19 +3014,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.106106588612276e-06</v>
+        <v>3.237578835338647e-16</v>
       </c>
       <c r="C129" t="n">
-        <v>3.33595148895662e-06</v>
+        <v>3.143455029278178e-16</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8124366518415339</v>
+        <v>0.9709277176410056</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1875633481584661</v>
+        <v>0.02907228235899439</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7234595868599265</v>
+        <v>0.5297313688304368</v>
       </c>
     </row>
     <row r="130">
@@ -3034,19 +3034,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7.701550996556558e-07</v>
+        <v>9.412380606046937e-18</v>
       </c>
       <c r="C130" t="n">
-        <v>6.416709452728503e-07</v>
+        <v>9.202514260500957e-18</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8331710658797791</v>
+        <v>0.9777031598774116</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1668289341202209</v>
+        <v>0.02229684012258837</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6913819467070551</v>
+        <v>0.5226706133114631</v>
       </c>
     </row>
     <row r="131">
@@ -3054,19 +3054,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.284841543828056e-07</v>
+        <v>2.0986634554598e-19</v>
       </c>
       <c r="C131" t="n">
-        <v>1.095745265271457e-07</v>
+        <v>2.063482500319547e-19</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8528252145449737</v>
+        <v>0.9832364950898975</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1471747854550263</v>
+        <v>0.01676350491010248</v>
       </c>
       <c r="F131" t="n">
-        <v>0.6471747854550263</v>
+        <v>0.5167635049101025</v>
       </c>
     </row>
     <row r="132">
@@ -3074,10 +3074,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.890962785565988e-08</v>
+        <v>3.518095514025299e-21</v>
       </c>
       <c r="C132" t="n">
-        <v>1.890962785565988e-08</v>
+        <v>3.518095514025299e-21</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>

--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_130.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_130.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_130.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_130.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -476,16 +476,16 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>46.28596597436862</v>
+        <v>93.8344674860092</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004628596597436863</v>
+        <v>0.0009383446748600921</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995371403402563</v>
+        <v>0.9990616553251399</v>
       </c>
       <c r="F2" t="n">
-        <v>65.88495753533554</v>
+        <v>30.24862203728828</v>
       </c>
     </row>
     <row r="3">
@@ -493,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99953.71403402563</v>
+        <v>99906.16553251399</v>
       </c>
       <c r="C3" t="n">
-        <v>48.98423668463084</v>
+        <v>102.5052764550214</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004900692001095219</v>
+        <v>0.001026015520750434</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995099307998905</v>
+        <v>0.9989739844792496</v>
       </c>
       <c r="F3" t="n">
-        <v>64.9152356090316</v>
+        <v>29.27656271634881</v>
       </c>
     </row>
     <row r="4">
@@ -513,19 +513,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99904.729797341</v>
+        <v>99803.66025605897</v>
       </c>
       <c r="C4" t="n">
-        <v>51.88238739780459</v>
+        <v>112.8989365030576</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005193186298891872</v>
+        <v>0.001131210380595271</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994806813701108</v>
+        <v>0.9988687896194047</v>
       </c>
       <c r="F4" t="n">
-        <v>63.94681901007346</v>
+        <v>28.30611824075639</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99852.84740994319</v>
+        <v>99690.76131955591</v>
       </c>
       <c r="C5" t="n">
-        <v>54.99503534525562</v>
+        <v>125.3541131770946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000550760812252804</v>
+        <v>0.001257429590443948</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994492391877472</v>
+        <v>0.9987425704095561</v>
       </c>
       <c r="F5" t="n">
-        <v>62.97978524517265</v>
+        <v>27.33760843238605</v>
       </c>
     </row>
     <row r="6">
@@ -553,19 +553,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99797.85237459793</v>
+        <v>99565.40720637882</v>
       </c>
       <c r="C6" t="n">
-        <v>58.3378380841192</v>
+        <v>140.2748734924218</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005845600551116492</v>
+        <v>0.001408871589322791</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994154399448884</v>
+        <v>0.9985911284106772</v>
       </c>
       <c r="F6" t="n">
-        <v>62.01421562534781</v>
+        <v>26.37139732251595</v>
       </c>
     </row>
     <row r="7">
@@ -573,19 +573,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99739.51453651382</v>
+        <v>99425.13233288639</v>
       </c>
       <c r="C7" t="n">
-        <v>61.92756304422883</v>
+        <v>158.142799410247</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006208929663634732</v>
+        <v>0.001590571676392316</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993791070336365</v>
+        <v>0.9984094283236077</v>
       </c>
       <c r="F7" t="n">
-        <v>61.05019541096938</v>
+        <v>25.40789822426319</v>
       </c>
     </row>
     <row r="8">
@@ -593,19 +593,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99677.58697346959</v>
+        <v>99266.98953347615</v>
       </c>
       <c r="C8" t="n">
-        <v>65.78216100506052</v>
+        <v>179.5311146461952</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0006599493727970085</v>
+        <v>0.001808568140224009</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999340050627203</v>
+        <v>0.998191431859776</v>
       </c>
       <c r="F8" t="n">
-        <v>60.08781395850355</v>
+        <v>24.4475791370331</v>
       </c>
     </row>
     <row r="9">
@@ -613,19 +613,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99611.80481246453</v>
+        <v>99087.45841882996</v>
       </c>
       <c r="C9" t="n">
-        <v>69.92084360380376</v>
+        <v>205.1210535137463</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007019333073569056</v>
+        <v>0.002070101068156638</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992980666926431</v>
+        <v>0.9979298989318434</v>
       </c>
       <c r="F9" t="n">
-        <v>59.12716486856021</v>
+        <v>23.49096843820356</v>
       </c>
     </row>
     <row r="10">
@@ -633,19 +633,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99541.88396886073</v>
+        <v>98882.33736531621</v>
       </c>
       <c r="C10" t="n">
-        <v>74.36416495394062</v>
+        <v>235.7206730169548</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007470640698060693</v>
+        <v>0.002383850132365861</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992529359301939</v>
+        <v>0.9976161498676341</v>
       </c>
       <c r="F10" t="n">
-        <v>58.16834613479978</v>
+        <v>22.5386607945232</v>
       </c>
     </row>
     <row r="11">
@@ -653,19 +653,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99467.51980390679</v>
+        <v>98646.61669229926</v>
       </c>
       <c r="C11" t="n">
-        <v>79.13410742738209</v>
+        <v>272.2862463267434</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007955773661934007</v>
+        <v>0.002760218803814274</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992044226338066</v>
+        <v>0.9972397811961857</v>
       </c>
       <c r="F11" t="n">
-        <v>57.21146029320087</v>
+        <v>21.5913231982535</v>
       </c>
     </row>
     <row r="12">
@@ -673,19 +673,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99388.38569647941</v>
+        <v>98374.33044597252</v>
       </c>
       <c r="C12" t="n">
-        <v>84.2541716187915</v>
+        <v>315.946258210856</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0008477265329179806</v>
+        <v>0.003211673785006086</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999152273467082</v>
+        <v>0.9967883262149939</v>
       </c>
       <c r="F12" t="n">
-        <v>56.25661457113542</v>
+        <v>20.64970100065054</v>
       </c>
     </row>
     <row r="13">
@@ -693,19 +693,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99304.13152486063</v>
+        <v>98058.38418776167</v>
       </c>
       <c r="C13" t="n">
-        <v>89.74947046970127</v>
+        <v>368.0278240873595</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009037838516037233</v>
+        <v>0.003753149994626281</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990962161483963</v>
+        <v>0.9962468500053737</v>
       </c>
       <c r="F13" t="n">
-        <v>55.30392103563819</v>
+        <v>19.71462377791182</v>
       </c>
     </row>
     <row r="14">
@@ -713,19 +713,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99214.38205439092</v>
+        <v>97690.35636367431</v>
       </c>
       <c r="C14" t="n">
-        <v>95.64682747863584</v>
+        <v>430.0850366137429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000964041961438622</v>
+        <v>0.00440253319388717</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9990359580385614</v>
+        <v>0.9955974668061128</v>
       </c>
       <c r="F14" t="n">
-        <v>54.35349674019598</v>
+        <v>18.78701082247656</v>
       </c>
     </row>
     <row r="15">
@@ -733,19 +733,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99118.73522691229</v>
+        <v>97260.27132706056</v>
       </c>
       <c r="C15" t="n">
-        <v>101.9748788619895</v>
+        <v>503.9282555952391</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00102881537610966</v>
+        <v>0.005181234318179739</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989711846238903</v>
+        <v>0.9948187656818203</v>
       </c>
       <c r="F15" t="n">
-        <v>53.4054638693168</v>
+        <v>17.86787600629548</v>
       </c>
     </row>
     <row r="16">
@@ -753,19 +753,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99016.7603480503</v>
+        <v>96756.34307146532</v>
       </c>
       <c r="C16" t="n">
-        <v>108.7641794565027</v>
+        <v>591.6526292909978</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001098442112973497</v>
+        <v>0.006114871754237305</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9989015578870265</v>
+        <v>0.9938851282457627</v>
       </c>
       <c r="F16" t="n">
-        <v>52.45994988007141</v>
+        <v>16.95833171370871</v>
       </c>
     </row>
     <row r="17">
@@ -773,19 +773,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98907.9961685938</v>
+        <v>96164.69044217432</v>
       </c>
       <c r="C17" t="n">
-        <v>116.0473120652111</v>
+        <v>695.6630774052869</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00117328544263906</v>
+        <v>0.007234080141126253</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9988267145573609</v>
+        <v>0.9927659198588737</v>
       </c>
       <c r="F17" t="n">
-        <v>51.51708763972911</v>
+        <v>16.05959149198476</v>
       </c>
     </row>
     <row r="18">
@@ -793,19 +793,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98791.94885652859</v>
+        <v>95469.02736476903</v>
       </c>
       <c r="C18" t="n">
-        <v>123.8589998443516</v>
+        <v>818.6914640147862</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001253735767721587</v>
+        <v>0.008575466689177857</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9987462642322784</v>
+        <v>0.9914245333108221</v>
       </c>
       <c r="F18" t="n">
-        <v>50.5770155585374</v>
+        <v>15.17297102039585</v>
       </c>
     </row>
     <row r="19">
@@ -813,19 +813,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98668.08985668424</v>
+        <v>94650.33590075425</v>
       </c>
       <c r="C19" t="n">
-        <v>132.2362212037681</v>
+        <v>963.7996057801263</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00134021264013362</v>
+        <v>0.01018273835594963</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9986597873598664</v>
+        <v>0.9898172616440504</v>
       </c>
       <c r="F19" t="n">
-        <v>49.63987771661991</v>
+        <v>14.29988695800785</v>
       </c>
     </row>
     <row r="20">
@@ -833,19 +833,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98535.85363548047</v>
+        <v>93686.53629497412</v>
       </c>
       <c r="C20" t="n">
-        <v>141.2183265481449</v>
+        <v>1134.35894680672</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001433166926939733</v>
+        <v>0.01210802524746102</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9985668330730603</v>
+        <v>0.987891974752539</v>
       </c>
       <c r="F20" t="n">
-        <v>48.70582398389132</v>
+        <v>13.44185320135429</v>
       </c>
     </row>
     <row r="21">
@@ -853,19 +853,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98394.63530893232</v>
+        <v>92552.1773481674</v>
       </c>
       <c r="C21" t="n">
-        <v>150.8471560146982</v>
+        <v>1333.99404633952</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001533083135488833</v>
+        <v>0.01441342693993286</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9984669168645112</v>
+        <v>0.9855865730600671</v>
       </c>
       <c r="F21" t="n">
-        <v>47.77501013180991</v>
+        <v>12.60047407217388</v>
       </c>
     </row>
     <row r="22">
@@ -873,19 +873,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98243.78815291762</v>
+        <v>91218.18330182788</v>
       </c>
       <c r="C22" t="n">
-        <v>161.1671571644356</v>
+        <v>1566.472389184285</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001640481909284452</v>
+        <v>0.01717280845202818</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9983595180907155</v>
+        <v>0.9828271915479718</v>
       </c>
       <c r="F22" t="n">
-        <v>46.84759793571106</v>
+        <v>11.7774339697061</v>
       </c>
     </row>
     <row r="23">
@@ -893,19 +893,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>98082.62099575318</v>
+        <v>89651.7109126436</v>
       </c>
       <c r="C23" t="n">
-        <v>172.2255013516919</v>
+        <v>1835.517515841515</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00175592270682845</v>
+        <v>0.02047387046110072</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9982440772931716</v>
+        <v>0.9795261295388993</v>
       </c>
       <c r="F23" t="n">
-        <v>45.92375526638661</v>
+        <v>10.97448306954544</v>
       </c>
     </row>
     <row r="24">
@@ -913,19 +913,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97910.39549440148</v>
+        <v>87816.19339680209</v>
       </c>
       <c r="C24" t="n">
-        <v>184.0721972291555</v>
+        <v>2144.516471989392</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001880006676509449</v>
+        <v>0.02442051276692536</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9981199933234906</v>
+        <v>0.9755794872330746</v>
       </c>
       <c r="F24" t="n">
-        <v>45.00365616949835</v>
+        <v>10.19341873960645</v>
       </c>
     </row>
     <row r="25">
@@ -933,19 +933,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97726.32329717233</v>
+        <v>85671.67692481269</v>
       </c>
       <c r="C25" t="n">
-        <v>196.7601995363588</v>
+        <v>2496.087068354437</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002013379741485188</v>
+        <v>0.02913549912820146</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9979866202585148</v>
+        <v>0.9708645008717985</v>
       </c>
       <c r="F25" t="n">
-        <v>44.08748093133801</v>
+        <v>9.436062480258572</v>
       </c>
     </row>
     <row r="26">
@@ -953,19 +953,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97529.56309763597</v>
+        <v>83175.58985645826</v>
       </c>
       <c r="C26" t="n">
-        <v>210.3455109642099</v>
+        <v>2891.467369732959</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002156735909435326</v>
+        <v>0.03476341285613915</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9978432640905647</v>
+        <v>0.9652365871438608</v>
       </c>
       <c r="F26" t="n">
-        <v>43.17541612937381</v>
+        <v>8.704232384884127</v>
       </c>
     </row>
     <row r="27">
@@ -973,19 +973,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97319.21758667176</v>
+        <v>80284.1224867253</v>
       </c>
       <c r="C27" t="n">
-        <v>224.8872744818051</v>
+        <v>3329.692649481226</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002310820823045789</v>
+        <v>0.04147386240700057</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9976891791769542</v>
+        <v>0.9585261375929994</v>
       </c>
       <c r="F27" t="n">
-        <v>42.2676546659542</v>
+        <v>7.999711360051617</v>
       </c>
     </row>
     <row r="28">
@@ -993,19 +993,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>97094.33031218995</v>
+        <v>76954.42983724408</v>
       </c>
       <c r="C28" t="n">
-        <v>240.4478530476344</v>
+        <v>3806.539322875836</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002476435568117274</v>
+        <v>0.04946484992386446</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9975235644318827</v>
+        <v>0.9505351500761355</v>
       </c>
       <c r="F28" t="n">
-        <v>41.36439578347488</v>
+        <v>7.324211636924683</v>
       </c>
     </row>
     <row r="29">
@@ -1013,19 +1013,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96853.88245914232</v>
+        <v>73147.89051436825</v>
       </c>
       <c r="C29" t="n">
-        <v>257.0928931002621</v>
+        <v>4313.249268869029</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002654440757279053</v>
+        <v>0.05896614705548875</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9973455592427209</v>
+        <v>0.9410338529445113</v>
       </c>
       <c r="F29" t="n">
-        <v>40.46584505925761</v>
+        <v>6.679336436299152</v>
       </c>
     </row>
     <row r="30">
@@ -1033,19 +1033,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96596.78956604206</v>
+        <v>68834.64124549922</v>
       </c>
       <c r="C30" t="n">
-        <v>274.8913676269592</v>
+        <v>4835.112035181354</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002845760908430806</v>
+        <v>0.07024242369386213</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9971542390915692</v>
+        <v>0.9297575763061379</v>
       </c>
       <c r="F30" t="n">
-        <v>39.57221437833789</v>
+        <v>6.06653999955889</v>
       </c>
     </row>
     <row r="31">
@@ -1053,19 +1053,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96321.8981984151</v>
+        <v>63999.52921031787</v>
       </c>
       <c r="C31" t="n">
-        <v>293.9155939364999</v>
+        <v>5350.087837196452</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003051389138231664</v>
+        <v>0.08359573739386073</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9969486108617683</v>
+        <v>0.9164042626061393</v>
       </c>
       <c r="F31" t="n">
-        <v>38.68372188231741</v>
+        <v>5.487087539178079</v>
       </c>
     </row>
     <row r="32">
@@ -1073,19 +1073,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96027.9826044786</v>
+        <v>58649.44137312142</v>
       </c>
       <c r="C32" t="n">
-        <v>314.2412205078043</v>
+        <v>5827.807567333106</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003272392192201989</v>
+        <v>0.09936680437000622</v>
       </c>
       <c r="E32" t="n">
-        <v>0.996727607807798</v>
+        <v>0.9006331956299938</v>
       </c>
       <c r="F32" t="n">
-        <v>37.80059189240575</v>
+        <v>4.942016959846327</v>
       </c>
     </row>
     <row r="33">
@@ -1093,19 +1093,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95713.7413839708</v>
+        <v>52821.63380578832</v>
       </c>
       <c r="C33" t="n">
-        <v>335.947176444464</v>
+        <v>6229.478626633726</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003509915834308042</v>
+        <v>0.1179342284174308</v>
       </c>
       <c r="E33" t="n">
-        <v>0.996490084165692</v>
+        <v>0.8820657715825692</v>
       </c>
       <c r="F33" t="n">
-        <v>36.92305480475717</v>
+        <v>4.43210441431612</v>
       </c>
     </row>
     <row r="34">
@@ -1113,19 +1113,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95377.79420752634</v>
+        <v>46592.15517915459</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1155761295339</v>
+        <v>6509.415993177554</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003765190620241832</v>
+        <v>0.1397105578857163</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9962348093797582</v>
+        <v>0.8602894421142837</v>
       </c>
       <c r="F34" t="n">
-        <v>36.05134695620404</v>
+        <v>3.957835845122169</v>
       </c>
     </row>
     <row r="35">
@@ -1133,19 +1133,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>95018.6786313968</v>
+        <v>40082.73918597704</v>
       </c>
       <c r="C35" t="n">
-        <v>383.831570643729</v>
+        <v>6619.010231484434</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004039538080009675</v>
+        <v>0.1651336801303265</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9959604619199903</v>
+        <v>0.8348663198696735</v>
       </c>
       <c r="F35" t="n">
-        <v>35.18571045849905</v>
+        <v>3.519386587639675</v>
       </c>
     </row>
     <row r="36">
@@ -1153,19 +1153,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94634.84706075308</v>
+        <v>33463.7289544926</v>
       </c>
       <c r="C36" t="n">
-        <v>410.183136378647</v>
+        <v>6513.770952197436</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004334377336873807</v>
+        <v>0.1946516767768328</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9956656226631262</v>
+        <v>0.8053483232231672</v>
       </c>
       <c r="F36" t="n">
-        <v>34.32639299920874</v>
+        <v>3.116610846286163</v>
       </c>
     </row>
     <row r="37">
@@ -1173,19 +1173,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>94224.66392437443</v>
+        <v>26949.95800229517</v>
       </c>
       <c r="C37" t="n">
-        <v>438.2607900462339</v>
+        <v>6163.426263897315</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004651232191159482</v>
+        <v>0.2286989190622268</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9953487678088405</v>
+        <v>0.7713010809377732</v>
       </c>
       <c r="F37" t="n">
-        <v>33.47364760744941</v>
+        <v>2.749042396728357</v>
       </c>
     </row>
     <row r="38">
@@ -1193,19 +1193,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>93786.4031343282</v>
+        <v>20786.53173839785</v>
       </c>
       <c r="C38" t="n">
-        <v>468.1572179593772</v>
+        <v>5563.74405493625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004991738698933212</v>
+        <v>0.2676610088184477</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9950082613010668</v>
+        <v>0.7323389911815523</v>
       </c>
       <c r="F38" t="n">
-        <v>32.62773238272807</v>
+        <v>2.415907227815495</v>
       </c>
     </row>
     <row r="39">
@@ -1213,19 +1213,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>93318.24591636882</v>
+        <v>15222.7876834616</v>
       </c>
       <c r="C39" t="n">
-        <v>499.9668060438583</v>
+        <v>4746.866831124355</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005357653277065721</v>
+        <v>0.3118263835658343</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9946423467229343</v>
+        <v>0.6881736164341657</v>
       </c>
       <c r="F39" t="n">
-        <v>31.78891018524613</v>
+        <v>2.11614805559428</v>
       </c>
     </row>
     <row r="40">
@@ -1233,19 +1233,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92818.27911032496</v>
+        <v>10475.92085233725</v>
       </c>
       <c r="C40" t="n">
-        <v>533.7850555516319</v>
+        <v>3785.194618527108</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005750861367696425</v>
+        <v>0.3613233310828809</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9942491386323036</v>
+        <v>0.6386766689171191</v>
       </c>
       <c r="F40" t="n">
-        <v>30.95744828614452</v>
+        <v>1.848459773811874</v>
       </c>
     </row>
     <row r="41">
@@ -1253,19 +1253,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>92284.49405477333</v>
+        <v>6690.72623381014</v>
       </c>
       <c r="C41" t="n">
-        <v>569.7078679013216</v>
+        <v>2783.631411386757</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00617338669661216</v>
+        <v>0.4160432386726984</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9938266133033878</v>
+        <v>0.5839567613273016</v>
       </c>
       <c r="F41" t="n">
-        <v>30.1336179763173</v>
+        <v>1.611334012088147</v>
       </c>
     </row>
     <row r="42">
@@ -1273,19 +1273,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91714.78618687201</v>
+        <v>3907.094822423383</v>
       </c>
       <c r="C42" t="n">
-        <v>607.8306805015958</v>
+        <v>1858.037016980936</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006627401161499957</v>
+        <v>0.4755546259889554</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9933725988385</v>
+        <v>0.5244453740110446</v>
       </c>
       <c r="F42" t="n">
-        <v>29.31769413259914</v>
+        <v>1.403110102813342</v>
       </c>
     </row>
     <row r="43">
@@ -1293,19 +1293,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>91106.95550637042</v>
+        <v>2049.057805442447</v>
       </c>
       <c r="C43" t="n">
-        <v>648.2474338598136</v>
+        <v>1104.479535145434</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007115235387428642</v>
+        <v>0.539018241560514</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9928847646125714</v>
+        <v>0.460981758439486</v>
       </c>
       <c r="F43" t="n">
-        <v>28.50995474034032</v>
+        <v>1.222028923443841</v>
       </c>
     </row>
     <row r="44">
@@ -1313,19 +1313,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>90458.70807251061</v>
+        <v>944.5782702970134</v>
       </c>
       <c r="C44" t="n">
-        <v>691.049348795891</v>
+        <v>571.5842509889001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007639389988213785</v>
+        <v>0.6051211095605353</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9923606100117862</v>
+        <v>0.3948788904394647</v>
       </c>
       <c r="F44" t="n">
-        <v>27.71068037162394</v>
+        <v>1.066285238461607</v>
       </c>
     </row>
     <row r="45">
@@ -1333,19 +1333,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89767.65872371472</v>
+        <v>372.9940193081134</v>
       </c>
       <c r="C45" t="n">
-        <v>736.3234912419982</v>
+        <v>250.6727443875281</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008202547573489039</v>
+        <v>0.6720556668777542</v>
       </c>
       <c r="E45" t="n">
-        <v>0.991797452426511</v>
+        <v>0.3279443331222458</v>
       </c>
       <c r="F45" t="n">
-        <v>26.92015361865357</v>
+        <v>0.9340732112354306</v>
       </c>
     </row>
     <row r="46">
@@ -1353,19 +1353,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89031.33523247272</v>
+        <v>122.3212749205853</v>
       </c>
       <c r="C46" t="n">
-        <v>784.1511010063172</v>
+        <v>90.22123405885964</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008807585542312646</v>
+        <v>0.7375759786466745</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9911924144576874</v>
+        <v>0.2624240213533255</v>
       </c>
       <c r="F46" t="n">
-        <v>26.13865848214731</v>
+        <v>0.8236185760637121</v>
       </c>
     </row>
     <row r="47">
@@ -1373,19 +1373,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>88247.18413146641</v>
+        <v>32.10004086172569</v>
       </c>
       <c r="C47" t="n">
-        <v>834.6056601295493</v>
+        <v>25.65310546559636</v>
       </c>
       <c r="D47" t="n">
-        <v>0.009457589704915614</v>
+        <v>0.799161146744324</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9905424102950844</v>
+        <v>0.200838853255676</v>
       </c>
       <c r="F47" t="n">
-        <v>25.36647971491491</v>
+        <v>0.7331896081570778</v>
       </c>
     </row>
     <row r="48">
@@ -1393,19 +1393,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>87412.57847133686</v>
+        <v>6.446935396129327</v>
       </c>
       <c r="C48" t="n">
-        <v>887.7506762133822</v>
+        <v>5.507614405913793</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01015586877470365</v>
+        <v>0.8542996117535949</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9898441312252964</v>
+        <v>0.1457003882464051</v>
       </c>
       <c r="F48" t="n">
-        <v>24.6039021211693</v>
+        <v>0.661078169771354</v>
       </c>
     </row>
     <row r="49">
@@ -1413,19 +1413,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>86524.82779512348</v>
+        <v>0.9393209902155343</v>
       </c>
       <c r="C49" t="n">
-        <v>943.6371565280082</v>
+        <v>0.8462079927512287</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01090596977277303</v>
+        <v>0.9008720145357977</v>
       </c>
       <c r="E49" t="n">
-        <v>0.989094030227227</v>
+        <v>0.09912798546420232</v>
       </c>
       <c r="F49" t="n">
-        <v>23.85120981253064</v>
+        <v>0.6055438610015398</v>
       </c>
     </row>
     <row r="50">
@@ -1433,19 +1433,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>85581.19063859546</v>
+        <v>0.09311299746430561</v>
       </c>
       <c r="C50" t="n">
-        <v>1002.300750028557</v>
+        <v>0.0872988067480146</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01171169438692687</v>
+        <v>0.9375576893170059</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9882883056130731</v>
+        <v>0.06244231068299411</v>
       </c>
       <c r="F50" t="n">
-        <v>23.10868542211917</v>
+        <v>0.5647231506551131</v>
       </c>
     </row>
     <row r="51">
@@ -1453,19 +1453,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>84578.8898885669</v>
+        <v>0.005814190716291014</v>
       </c>
       <c r="C51" t="n">
-        <v>1063.758536883758</v>
+        <v>0.00560569004300111</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01257711632637015</v>
+        <v>0.9641393474235893</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9874228836736298</v>
+        <v>0.03586065257641069</v>
       </c>
       <c r="F51" t="n">
-        <v>22.37660927859927</v>
+        <v>0.5365271551800566</v>
       </c>
     </row>
     <row r="52">
@@ -1473,19 +1473,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83515.13135168314</v>
+        <v>0.0002085006732899045</v>
       </c>
       <c r="C52" t="n">
-        <v>1128.005449047429</v>
+        <v>0.0002046574756656011</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01350659971182211</v>
+        <v>0.9815674570078742</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9864934002881779</v>
+        <v>0.01843254299212582</v>
       </c>
       <c r="F52" t="n">
-        <v>21.65525854252947</v>
+        <v>0.5185859028143912</v>
       </c>
     </row>
     <row r="53">
@@ -1493,19 +1493,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>82387.12590263571</v>
+        <v>3.843197624303344e-06</v>
       </c>
       <c r="C53" t="n">
-        <v>1195.010311133158</v>
+        <v>3.811323485955256e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01450481853858343</v>
+        <v>0.9917063493829917</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9854951814614166</v>
+        <v>0.008293650617008264</v>
       </c>
       <c r="F53" t="n">
-        <v>20.94490630788763</v>
+        <v>0.5083200577549666</v>
       </c>
     </row>
     <row r="54">
@@ -1513,19 +1513,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>81192.11559150256</v>
+        <v>3.187413834808813e-08</v>
       </c>
       <c r="C54" t="n">
-        <v>1264.711498778952</v>
+        <v>3.177275263359934e-08</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01557677724696849</v>
+        <v>0.996819185717851</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9844232227530315</v>
+        <v>0.003180814282149003</v>
       </c>
       <c r="F54" t="n">
-        <v>20.24582067217147</v>
+        <v>0.5031840186159053</v>
       </c>
     </row>
     <row r="55">
@@ -1533,19 +1533,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>79927.40409272361</v>
+        <v>1.013857144887919e-10</v>
       </c>
       <c r="C55" t="n">
-        <v>1337.012222253824</v>
+        <v>1.012836049837982e-10</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01672783243032339</v>
+        <v>0.9989928610208196</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9832721675696766</v>
+        <v>0.001007138979180366</v>
       </c>
       <c r="F55" t="n">
-        <v>19.55826377901818</v>
+        <v>0.5010073941676955</v>
       </c>
     </row>
     <row r="56">
@@ -1553,19 +1553,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>78590.39187046979</v>
+        <v>1.02109504993714e-13</v>
       </c>
       <c r="C56" t="n">
-        <v>1411.775456734167</v>
+        <v>1.020836337750906e-13</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0179637157053627</v>
+        <v>0.9997466326114793</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9820362842946373</v>
+        <v>0.0002533673885206644</v>
       </c>
       <c r="F56" t="n">
-        <v>18.88249083783577</v>
+        <v>0.5002533796430851</v>
       </c>
     </row>
     <row r="57">
@@ -1573,19 +1573,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>77178.61641373562</v>
+        <v>2.587121862339506e-17</v>
       </c>
       <c r="C57" t="n">
-        <v>1488.818557964678</v>
+        <v>2.586996732417584e-17</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0192905577625736</v>
+        <v>0.9999516335416034</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9807094422374264</v>
+        <v>4.836645839656484e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>18.21874912548601</v>
+        <v>0.5000483667790538</v>
       </c>
     </row>
     <row r="58">
@@ -1593,19 +1593,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>75689.79785577094</v>
+        <v>1.25129921921687e-21</v>
       </c>
       <c r="C58" t="n">
-        <v>1567.90762341504</v>
+        <v>1.251290923426901e-21</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02071491360569799</v>
+        <v>0.9999933702588143</v>
       </c>
       <c r="E58" t="n">
-        <v>0.979285086394302</v>
+        <v>6.629741185704141e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>17.56727697559617</v>
+        <v>0.5000066297452346</v>
       </c>
     </row>
     <row r="59">
@@ -1613,19 +1613,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>74121.8902323559</v>
+        <v>8.295789969281521e-27</v>
       </c>
       <c r="C59" t="n">
-        <v>1648.751685016245</v>
+        <v>8.29578490290961e-27</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02224378897850243</v>
+        <v>0.9999993892839707</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9777562110214976</v>
+        <v>6.107160293034042e-07</v>
       </c>
       <c r="F59" t="n">
-        <v>16.92830276159659</v>
+        <v>0.5000006107160506</v>
       </c>
     </row>
     <row r="60">
@@ -1633,19 +1633,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72473.13854733965</v>
+        <v>5.066371909974619e-33</v>
       </c>
       <c r="C60" t="n">
-        <v>1730.996850502635</v>
+        <v>5.066371733066535e-33</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02388466796386834</v>
+        <v>0.9999999650818994</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9761153320361317</v>
+        <v>3.491810063316336e-08</v>
       </c>
       <c r="F60" t="n">
-        <v>16.30204388007245</v>
+        <v>0.5000000349181006</v>
       </c>
     </row>
     <row r="61">
@@ -1653,19 +1653,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>70742.14169683702</v>
+        <v>1.769080841975258e-40</v>
       </c>
       <c r="C61" t="n">
-        <v>1814.220546552639</v>
+        <v>1.769080839982513e-40</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02564554172430089</v>
+        <v>0.9999999988735702</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9743544582756991</v>
+        <v>1.12642983829403e-09</v>
       </c>
       <c r="F61" t="n">
-        <v>15.68870574147229</v>
+        <v>0.5000000011264298</v>
       </c>
     </row>
     <row r="62">
@@ -1673,19 +1673,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68927.92115028438</v>
+        <v>1.992745446755256e-49</v>
       </c>
       <c r="C62" t="n">
-        <v>1897.926058352906</v>
+        <v>1.992745446718819e-49</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02753493833384058</v>
+        <v>0.9999999999817153</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9724650616661594</v>
+        <v>1.828470708176155e-11</v>
       </c>
       <c r="F62" t="n">
-        <v>15.08848077562196</v>
+        <v>0.5000000000182847</v>
       </c>
     </row>
     <row r="63">
@@ -1693,19 +1693,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67029.99509193147</v>
+        <v>3.643676678243392e-60</v>
       </c>
       <c r="C63" t="n">
-        <v>1981.537606632735</v>
+        <v>3.643676678242917e-60</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02956195362859659</v>
+        <v>0.9999999999998698</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9704380463714034</v>
+        <v>1.302291607885309e-13</v>
       </c>
       <c r="F63" t="n">
-        <v>14.50154745984086</v>
+        <v>0.5000000000001302</v>
       </c>
     </row>
     <row r="64">
@@ -1713,19 +1713,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>65048.45748529874</v>
+        <v>4.745129559923788e-73</v>
       </c>
       <c r="C64" t="n">
-        <v>2064.396253917507</v>
+        <v>4.745129559923786e-73</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03173628297618081</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9682637170238192</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="F64" t="n">
-        <v>13.92806937773566</v>
+        <v>0.5000000000000003</v>
       </c>
     </row>
     <row r="65">
@@ -1733,19 +1733,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62984.06123138123</v>
+        <v>1.580445627677048e-88</v>
       </c>
       <c r="C65" t="n">
-        <v>2145.756985439502</v>
+        <v>1.580445627677048e-88</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03406825383261247</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9659317461673875</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>13.36819431694695</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66">
@@ -1753,1338 +1753,1188 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>60838.30424594173</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>2224.7873647892</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03656885891814787</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9634311410818521</v>
-      </c>
-      <c r="F66" t="n">
-        <v>12.82205341423472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>58613.51688115253</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>2300.568217038743</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03924978980025173</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9607502101997483</v>
-      </c>
-      <c r="F67" t="n">
-        <v>12.28976035630122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>56312.94866411378</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>2372.096838679116</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04212347062178912</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9578765293782109</v>
-      </c>
-      <c r="F68" t="n">
-        <v>11.77141064465656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>53940.85182543467</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>2438.293268995448</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04520309165465797</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.954796908345342</v>
-      </c>
-      <c r="F69" t="n">
-        <v>11.26708093262625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>51502.55855643922</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>2498.010174816019</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04850264229258761</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9514973577074124</v>
-      </c>
-      <c r="F70" t="n">
-        <v>10.77682844227633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49004.54838162321</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>2550.046891893148</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05203694302077111</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9479630569792289</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10.30069046858717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>46454.50148973006</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>2593.16812223235</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05582167581338993</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9441783241866101</v>
-      </c>
-      <c r="F72" t="n">
-        <v>9.838683977641459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>43861.3333674977</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>2626.127697262551</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05987341231191512</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9401265876880849</v>
-      </c>
-      <c r="F73" t="n">
-        <v>9.390805304905237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41235.20567023515</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>2647.697671263339</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06420963902635579</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9357903609736442</v>
-      </c>
-      <c r="F74" t="n">
-        <v>8.957029958879355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>38587.50799897181</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>2656.702797932547</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06884877867737238</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9311512213226276</v>
-      </c>
-      <c r="F75" t="n">
-        <v>8.537312534487135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>35930.80520103926</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>2652.060157296962</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0738102066585542</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9261897933414458</v>
-      </c>
-      <c r="F76" t="n">
-        <v>8.131586739553173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>33278.7450437423</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>2632.823335931791</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07911426144438893</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9208857385556111</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7.739765536629855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30645.92170781051</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>2598.230122163598</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08478224760005848</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9152177523999415</v>
-      </c>
-      <c r="F78" t="n">
-        <v>7.361741401257085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28047.69158564692</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>2547.75216956537</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09083642986395191</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9091635701360481</v>
-      </c>
-      <c r="F79" t="n">
-        <v>6.997386696514349</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25499.93941608155</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>2481.144527793682</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0973000165729393</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9026999834270607</v>
-      </c>
-      <c r="F80" t="n">
-        <v>6.646554162461738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23018.79488828786</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>2398.492374577971</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1041971304848084</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8958028695151916</v>
-      </c>
-      <c r="F81" t="n">
-        <v>6.309077517789042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20620.30251370989</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>2300.251756899409</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.111552764823408</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.888447235176592</v>
-      </c>
-      <c r="F82" t="n">
-        <v>5.984772169721794</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18320.05075681048</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>2187.280729461302</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1193927221325072</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8806072778674928</v>
-      </c>
-      <c r="F83" t="n">
-        <v>5.673436026993337</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16132.77002734918</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>2060.857044853963</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1277435332779356</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8722564667220644</v>
-      </c>
-      <c r="F84" t="n">
-        <v>5.374850409505469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14071.91298249522</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1922.678591712388</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1366323536895167</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8633676463104833</v>
-      </c>
-      <c r="F85" t="n">
-        <v>5.088781047190322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12149.23439078283</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1774.843183928566</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1460868336917652</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8539131663082348</v>
-      </c>
-      <c r="F86" t="n">
-        <v>4.81497915957359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10374.39120685426</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1619.805151383193</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1561349595447107</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8438650404552893</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4.553182606644601</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8754.586055471073</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1460.307515484275</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1668048616155499</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8331951383844501</v>
-      </c>
-      <c r="F88" t="n">
-        <v>4.303117100878824</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7294.278539986798</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1299.290344690341</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1781245859433129</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8218754140566871</v>
-      </c>
-      <c r="F89" t="n">
-        <v>4.064497469647984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5994.988195296456</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1139.778098708036</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1901218253611046</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8098781746388954</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3.837028956802607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4855.21009658842</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>984.7512212632259</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2028236063265676</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7971763936734324</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3.620408551928818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3870.458875325194</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>837.0096747404634</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2162559277083491</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7837440722916509</v>
-      </c>
-      <c r="F92" t="n">
-        <v>3.414326335668076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3033.449200584731</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>699.0381898211847</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2304433480166529</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7695566519833471</v>
-      </c>
-      <c r="F93" t="n">
-        <v>3.218466829543793</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2334.411010763547</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>572.8843465232333</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2454085179866644</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7545914820133356</v>
-      </c>
-      <c r="F94" t="n">
-        <v>3.032510338956332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1761.526664240313</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>460.0608361056541</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2611716560669053</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7388283439330947</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2.856134278377099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1301.465828134659</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>361.4820885739402</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2777499652772586</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7222500347227414</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2.689014468278792</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>939.983739560719</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>277.4427722837186</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2951569911340971</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7048430088659029</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2.530826393963574</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>662.5409672770004</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>207.641612512259</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3134019219455249</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6865980780544751</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2.381246417171942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>454.8993547647414</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>151.2489564220377</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3324888348110728</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6675111651889272</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2.239952932147129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>303.6503983427037</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>107.0112263423681</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3524158931666999</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6475841068333001</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2.106627458665304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>196.6391720003356</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>73.38072562353391</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3731745047391101</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6268254952608899</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1.980955665391087</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>123.2584463768017</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>48.65608094513433</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3947484523404786</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6052515476595214</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1.862628317750064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>74.60236543166734</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>31.11761750054707</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4171130140511364</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5828869859488636</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1.75134214529361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>43.48474793112027</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>19.14346860729952</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.440234093977565</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.559765906022435</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.646800624235226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>24.34127932382074</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>11.29599396184089</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4640673898674859</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5359326101325141</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1.548714671431352</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.04528536197985</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>6.373373689843154</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4885576292886769</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5114423707113231</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1.456803246535135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.671911672136696</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>3.426946777922375</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5136379116399313</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4863620883600687</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1.370793859344105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.244964894214321</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1.749779819667622</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5392291986848392</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4607708013151608</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1.290422979472508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.495185074546699</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8451384133459581</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5652400012100054</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4347599987899946</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1.215436345394354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6500466612007407</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3845457068610646</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5915663133331795</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4084336866668205</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1.14558916962353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2655009543396761</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1641039756042438</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6180918483415045</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3819081516584955</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1.080646236337918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1013969787354323</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06536947931166227</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6446886300451422</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3553113699548578</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1.020381887153683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03602749942377004</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02418230577424123</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6712179907297799</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3287820092702201</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.964579890082881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01184519364952881</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.008262401854711613</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6975320200898771</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3024679799101229</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.9130331860739102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.003582791794817194</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.002592062078908941</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7234754982576922</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2765245017423078</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.8655435071065744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0009907297159082533</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0007419459219956255</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7488883295636743</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2511116704363257</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.821920859827543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0002487837939126278</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.00019246125055752</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7736084715594932</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2263915284405068</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.7819828694866351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.632254335510787e-05</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>4.491583862725805e-05</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7974753260709178</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2025246739290822</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.7455539808802392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.140670472784982e-05</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>9.357302310860072e-06</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8203335261246775</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1796664738753225</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.7124645166258825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.049402416989748e-06</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1.725672695183973e-06</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8420370157066159</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1579629842933841</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.6825495989492163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.237297218057748e-07</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>2.792017605610935e-07</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8624532804825491</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1375467195174509</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.6556479498397395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.452796124468132e-08</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>3.924995289504024e-08</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8814675497798249</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1185324502201751</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.6316005964067504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.278008349641075e-09</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>4.74485961021082e-09</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8989867571038398</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1010132428961602</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.6102495237574267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.331487394302556e-10</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>4.878007192503324e-10</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9149430227887552</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.08505697721124483</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.5914363364292858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.534802017992316e-11</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>4.214175248850279e-11</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.929296412970199</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07070358702980095</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.5750010102310288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.206267691420367e-12</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>3.020421959295569e-12</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9420367386596877</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>0.05796326134031227</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.5607808370375398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.858457321247984e-13</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1.771452138472278e-13</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9531841911132612</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.04681580888673875</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.5486096819274019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8.700518277570608e-15</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>8.376760394036744e-15</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.962788666927062</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.037211333072938</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.5383176769412017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.237578835338647e-16</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>3.143455029278178e-16</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9709277176410056</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02907228235899439</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.5297313688304368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9.412380606046937e-18</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>9.202514260500957e-18</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9777031598774116</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02229684012258837</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.5226706133114631</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.0986634554598e-19</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>2.063482500319547e-19</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9832364950898975</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01676350491010248</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5167635049101025</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>3.518095514025299e-21</v>
-      </c>
-      <c r="C132" t="n">
-        <v>3.518095514025299e-21</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="n">
         <v>0.5</v>
       </c>
     </row>
